--- a/docker/docker_study01.xlsx
+++ b/docker/docker_study01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toyohide/Desktop/hideyuki/docker_study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toyohide/Desktop/hideyuki/MY_STUDY/docker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB86AB5C-E083-3142-9C4B-29976DEA0250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5379678-260B-DF46-8BD2-A0BD424A9D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="500" windowWidth="24540" windowHeight="15640" activeTab="2" xr2:uid="{A19E9BBB-4B96-2742-B501-9004DF3632FC}"/>
+    <workbookView xWindow="1560" yWindow="500" windowWidth="24540" windowHeight="15640" activeTab="1" xr2:uid="{A19E9BBB-4B96-2742-B501-9004DF3632FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1416,7 +1416,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1433,9 +1433,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -1456,9 +1453,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1474,9 +1468,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1487,9 +1478,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1504,7 +1492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2216,11 +2204,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF919D5-23D6-4E45-8E74-B535D712EFF3}">
   <dimension ref="A1:X145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.7109375" defaultRowHeight="20"/>
@@ -2274,356 +2262,109 @@
     </row>
     <row r="19" spans="1:24">
       <c r="C19" s="5"/>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="7"/>
+      <c r="X19" s="6"/>
     </row>
     <row r="20" spans="1:24">
       <c r="C20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="7"/>
+      <c r="X20" s="6"/>
     </row>
     <row r="21" spans="1:24">
       <c r="C21" s="5"/>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="7"/>
+      <c r="X21" s="6"/>
     </row>
     <row r="22" spans="1:24">
       <c r="C22" s="5"/>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="7"/>
+      <c r="X22" s="6"/>
     </row>
     <row r="23" spans="1:24">
       <c r="C23" s="5"/>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="7"/>
+      <c r="X23" s="6"/>
     </row>
     <row r="24" spans="1:24">
       <c r="C24" s="5"/>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="7"/>
+      <c r="X24" s="6"/>
     </row>
     <row r="25" spans="1:24">
       <c r="C25" s="5"/>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="7"/>
+      <c r="X25" s="6"/>
     </row>
     <row r="26" spans="1:24">
       <c r="C26" s="5"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="7"/>
+      <c r="X26" s="6"/>
     </row>
     <row r="27" spans="1:24">
       <c r="C27" s="5"/>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="7"/>
+      <c r="X27" s="6"/>
     </row>
     <row r="28" spans="1:24">
       <c r="C28" s="5"/>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="7"/>
+      <c r="X28" s="6"/>
     </row>
     <row r="29" spans="1:24">
       <c r="C29" s="5"/>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="7"/>
+      <c r="X29" s="6"/>
     </row>
     <row r="30" spans="1:24">
       <c r="C30" s="5"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="7"/>
+      <c r="X30" s="6"/>
     </row>
     <row r="31" spans="1:24">
       <c r="C31" s="5"/>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="7"/>
+      <c r="X31" s="6"/>
     </row>
     <row r="32" spans="1:24" ht="21" thickBot="1">
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="10"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="9"/>
     </row>
     <row r="35" spans="1:24" ht="21" thickBot="1">
       <c r="A35" t="s">
@@ -2659,365 +2400,249 @@
     </row>
     <row r="37" spans="1:24">
       <c r="C37" s="5"/>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="7"/>
+      <c r="X37" s="6"/>
     </row>
     <row r="38" spans="1:24">
       <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="7"/>
+      <c r="X38" s="6"/>
     </row>
     <row r="39" spans="1:24">
       <c r="C39" s="5"/>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="7"/>
+      <c r="X39" s="6"/>
     </row>
     <row r="40" spans="1:24">
       <c r="C40" s="5"/>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="7"/>
+      <c r="X40" s="6"/>
     </row>
     <row r="41" spans="1:24">
       <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="7"/>
+      <c r="X41" s="6"/>
     </row>
     <row r="42" spans="1:24">
       <c r="C42" s="5"/>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="7"/>
+      <c r="X42" s="6"/>
     </row>
     <row r="43" spans="1:24" ht="21" thickBot="1">
-      <c r="C43" s="8"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="10"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="9"/>
     </row>
     <row r="46" spans="1:24">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
     </row>
     <row r="49" spans="1:20">
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
     </row>
     <row r="50" spans="1:20">
-      <c r="C50" s="15"/>
+      <c r="C50" s="13"/>
     </row>
     <row r="51" spans="1:20">
-      <c r="C51" s="15"/>
+      <c r="C51" s="13"/>
     </row>
     <row r="52" spans="1:20">
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
     </row>
     <row r="53" spans="1:20">
-      <c r="C53" s="15"/>
+      <c r="C53" s="13"/>
     </row>
     <row r="54" spans="1:20">
-      <c r="C54" s="15"/>
+      <c r="C54" s="13"/>
     </row>
     <row r="55" spans="1:20">
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="14"/>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="14"/>
-      <c r="R55" s="14"/>
-      <c r="S55" s="14"/>
-      <c r="T55" s="14"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
     </row>
     <row r="58" spans="1:20">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-    </row>
-    <row r="68" spans="1:23" s="14" customFormat="1"/>
-    <row r="69" spans="1:23" s="14" customFormat="1"/>
-    <row r="70" spans="1:23" s="14" customFormat="1"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+    </row>
+    <row r="68" spans="1:23" s="12" customFormat="1"/>
+    <row r="69" spans="1:23" s="12" customFormat="1"/>
+    <row r="70" spans="1:23" s="12" customFormat="1"/>
     <row r="73" spans="1:23">
       <c r="A73" t="s">
         <v>0</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:23">
-      <c r="C74" s="15" t="s">
+      <c r="C74" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:23">
-      <c r="C75" s="17" t="s">
+      <c r="C75" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="14"/>
-      <c r="N75" s="14"/>
-      <c r="O75" s="14"/>
-      <c r="P75" s="14"/>
-      <c r="Q75" s="14"/>
-      <c r="R75" s="14"/>
-      <c r="S75" s="14"/>
-      <c r="T75" s="14"/>
-      <c r="U75" s="14"/>
-      <c r="V75" s="14"/>
-      <c r="W75" s="14"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="12"/>
+      <c r="S75" s="12"/>
+      <c r="T75" s="12"/>
+      <c r="U75" s="12"/>
+      <c r="V75" s="12"/>
+      <c r="W75" s="12"/>
     </row>
     <row r="76" spans="1:23">
-      <c r="C76" s="15" t="s">
+      <c r="C76" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:23">
-      <c r="C77" s="15" t="s">
+      <c r="C77" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:23">
-      <c r="C78" s="15"/>
+      <c r="C78" s="13"/>
     </row>
     <row r="79" spans="1:23">
-      <c r="C79" s="15"/>
+      <c r="C79" s="13"/>
     </row>
     <row r="80" spans="1:23">
-      <c r="C80" s="15"/>
+      <c r="C80" s="13"/>
     </row>
     <row r="81" spans="1:14">
-      <c r="C81" s="15"/>
+      <c r="C81" s="13"/>
     </row>
     <row r="82" spans="1:14">
-      <c r="C82" s="15"/>
+      <c r="C82" s="13"/>
     </row>
     <row r="83" spans="1:14">
-      <c r="C83" s="15"/>
+      <c r="C83" s="13"/>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" t="s">
         <v>0</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C84" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="14"/>
-      <c r="K84" s="14"/>
-      <c r="L84" s="14"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
     </row>
     <row r="85" spans="1:14">
-      <c r="C85" s="15" t="s">
+      <c r="C85" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:14">
-      <c r="C86" s="15" t="s">
+      <c r="C86" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:14">
-      <c r="C87" s="15"/>
+      <c r="C87" s="13"/>
     </row>
     <row r="88" spans="1:14">
-      <c r="C88" s="15"/>
-      <c r="K88" s="18" t="s">
+      <c r="C88" s="13"/>
+      <c r="K88" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:14">
-      <c r="C89" s="15" t="s">
+      <c r="C89" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="14"/>
-      <c r="K89" s="14"/>
-      <c r="L89" s="14"/>
-      <c r="M89" s="14"/>
-      <c r="N89" s="14"/>
-    </row>
-    <row r="92" spans="1:14" s="14" customFormat="1"/>
-    <row r="93" spans="1:14" s="14" customFormat="1"/>
-    <row r="94" spans="1:14" s="14" customFormat="1"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
+    </row>
+    <row r="92" spans="1:14" s="12" customFormat="1"/>
+    <row r="93" spans="1:14" s="12" customFormat="1"/>
+    <row r="94" spans="1:14" s="12" customFormat="1"/>
     <row r="97" spans="1:15">
       <c r="A97" t="s">
         <v>0</v>
@@ -3027,157 +2652,157 @@
       </c>
     </row>
     <row r="99" spans="1:15">
-      <c r="C99" s="15" t="s">
+      <c r="C99" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="14"/>
-      <c r="K99" s="14"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="14"/>
-      <c r="N99" s="14"/>
-      <c r="O99" s="14"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="12"/>
+      <c r="O99" s="12"/>
     </row>
     <row r="100" spans="1:15">
-      <c r="C100" s="15" t="s">
+      <c r="C100" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:15">
-      <c r="C101" s="15"/>
+      <c r="C101" s="13"/>
     </row>
     <row r="102" spans="1:15">
-      <c r="C102" s="15"/>
+      <c r="C102" s="13"/>
     </row>
     <row r="103" spans="1:15">
       <c r="A103" t="s">
         <v>0</v>
       </c>
-      <c r="C103" s="15" t="s">
+      <c r="C103" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="105" spans="1:15">
-      <c r="C105" s="15" t="s">
+      <c r="C105" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G105" s="14"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
-      <c r="J105" s="14"/>
-      <c r="K105" s="14"/>
-      <c r="L105" s="14"/>
-      <c r="M105" s="14"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="12"/>
+      <c r="M105" s="12"/>
     </row>
     <row r="106" spans="1:15">
-      <c r="C106" s="15"/>
+      <c r="C106" s="13"/>
     </row>
     <row r="107" spans="1:15">
-      <c r="C107" s="15"/>
+      <c r="C107" s="13"/>
     </row>
     <row r="108" spans="1:15">
-      <c r="C108" s="15"/>
+      <c r="C108" s="13"/>
     </row>
     <row r="109" spans="1:15">
-      <c r="C109" s="15"/>
+      <c r="C109" s="13"/>
     </row>
     <row r="110" spans="1:15">
-      <c r="C110" s="15"/>
+      <c r="C110" s="13"/>
     </row>
     <row r="112" spans="1:15">
-      <c r="C112" s="15"/>
+      <c r="C112" s="13"/>
     </row>
     <row r="113" spans="3:3">
-      <c r="C113" s="15"/>
+      <c r="C113" s="13"/>
     </row>
     <row r="114" spans="3:3">
-      <c r="C114" s="15"/>
+      <c r="C114" s="13"/>
     </row>
     <row r="115" spans="3:3">
-      <c r="C115" s="15"/>
+      <c r="C115" s="13"/>
     </row>
     <row r="117" spans="3:3">
-      <c r="C117" s="15"/>
+      <c r="C117" s="13"/>
     </row>
     <row r="118" spans="3:3">
-      <c r="C118" s="15"/>
+      <c r="C118" s="13"/>
     </row>
     <row r="119" spans="3:3">
-      <c r="C119" s="15"/>
+      <c r="C119" s="13"/>
     </row>
     <row r="120" spans="3:3">
-      <c r="C120" s="15"/>
+      <c r="C120" s="13"/>
     </row>
     <row r="121" spans="3:3">
-      <c r="C121" s="15"/>
+      <c r="C121" s="13"/>
     </row>
     <row r="122" spans="3:3">
-      <c r="C122" s="15"/>
+      <c r="C122" s="13"/>
     </row>
     <row r="123" spans="3:3">
-      <c r="C123" s="15"/>
+      <c r="C123" s="13"/>
     </row>
     <row r="124" spans="3:3">
-      <c r="C124" s="15"/>
+      <c r="C124" s="13"/>
     </row>
     <row r="125" spans="3:3">
-      <c r="C125" s="15"/>
+      <c r="C125" s="13"/>
     </row>
     <row r="127" spans="3:3">
-      <c r="C127" s="15"/>
+      <c r="C127" s="13"/>
     </row>
     <row r="128" spans="3:3">
-      <c r="C128" s="15"/>
+      <c r="C128" s="13"/>
     </row>
     <row r="129" spans="3:3">
-      <c r="C129" s="15"/>
+      <c r="C129" s="13"/>
     </row>
     <row r="130" spans="3:3">
-      <c r="C130" s="15"/>
+      <c r="C130" s="13"/>
     </row>
     <row r="131" spans="3:3">
-      <c r="C131" s="15"/>
+      <c r="C131" s="13"/>
     </row>
     <row r="132" spans="3:3">
-      <c r="C132" s="15"/>
+      <c r="C132" s="13"/>
     </row>
     <row r="133" spans="3:3">
-      <c r="C133" s="15"/>
+      <c r="C133" s="13"/>
     </row>
     <row r="134" spans="3:3">
-      <c r="C134" s="15"/>
+      <c r="C134" s="13"/>
     </row>
     <row r="135" spans="3:3">
-      <c r="C135" s="15"/>
+      <c r="C135" s="13"/>
     </row>
     <row r="136" spans="3:3">
-      <c r="C136" s="15"/>
+      <c r="C136" s="13"/>
     </row>
     <row r="137" spans="3:3">
-      <c r="C137" s="15"/>
+      <c r="C137" s="13"/>
     </row>
     <row r="138" spans="3:3">
-      <c r="C138" s="15"/>
+      <c r="C138" s="13"/>
     </row>
     <row r="139" spans="3:3">
-      <c r="C139" s="15"/>
+      <c r="C139" s="13"/>
     </row>
     <row r="140" spans="3:3">
-      <c r="C140" s="15"/>
+      <c r="C140" s="13"/>
     </row>
     <row r="142" spans="3:3">
-      <c r="C142" s="15"/>
+      <c r="C142" s="13"/>
     </row>
     <row r="143" spans="3:3">
-      <c r="C143" s="15"/>
+      <c r="C143" s="13"/>
     </row>
     <row r="144" spans="3:3">
-      <c r="C144" s="15"/>
+      <c r="C144" s="13"/>
     </row>
     <row r="145" spans="3:3">
-      <c r="C145" s="15"/>
+      <c r="C145" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3193,7 +2818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F478B2-D45F-C849-91DA-60CE1AB63F62}">
   <dimension ref="A1:X268"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -3213,44 +2838,44 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="C7" s="15"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="C9" s="15"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="C11" s="15"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="C12" s="15"/>
+      <c r="C12" s="13"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="C14" s="15"/>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="C15" s="15"/>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
@@ -3258,12 +2883,12 @@
       </c>
     </row>
     <row r="24" spans="3:10">
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="31" spans="3:10">
-      <c r="J31" s="18" t="s">
+      <c r="J31" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3301,339 +2926,111 @@
     </row>
     <row r="36" spans="1:24">
       <c r="C36" s="5"/>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="7"/>
+      <c r="X36" s="6"/>
     </row>
     <row r="37" spans="1:24">
       <c r="C37" s="5"/>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="7"/>
+      <c r="X37" s="6"/>
     </row>
     <row r="38" spans="1:24">
       <c r="C38" s="5"/>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="7"/>
+      <c r="X38" s="6"/>
     </row>
     <row r="39" spans="1:24">
       <c r="C39" s="5"/>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="7"/>
+      <c r="X39" s="6"/>
     </row>
     <row r="40" spans="1:24">
       <c r="C40" s="5"/>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="7"/>
+      <c r="X40" s="6"/>
     </row>
     <row r="41" spans="1:24">
       <c r="C41" s="5"/>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="7"/>
+      <c r="X41" s="6"/>
     </row>
     <row r="42" spans="1:24">
       <c r="C42" s="5"/>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="7"/>
+      <c r="X42" s="6"/>
     </row>
     <row r="43" spans="1:24">
       <c r="C43" s="5"/>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="7"/>
+      <c r="X43" s="6"/>
     </row>
     <row r="44" spans="1:24">
       <c r="C44" s="5"/>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
-      <c r="X44" s="7"/>
+      <c r="X44" s="6"/>
     </row>
     <row r="45" spans="1:24">
       <c r="C45" s="5"/>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="7"/>
+      <c r="X45" s="6"/>
     </row>
     <row r="46" spans="1:24">
       <c r="C46" s="5"/>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
-      <c r="W46" s="6"/>
-      <c r="X46" s="7"/>
+      <c r="X46" s="6"/>
     </row>
     <row r="47" spans="1:24">
       <c r="C47" s="5"/>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
-      <c r="W47" s="6"/>
-      <c r="X47" s="7"/>
+      <c r="X47" s="6"/>
     </row>
     <row r="48" spans="1:24" ht="21" thickBot="1">
-      <c r="C48" s="8"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="10"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="9"/>
     </row>
     <row r="51" spans="1:24" ht="21" thickBot="1">
       <c r="A51" t="s">
@@ -3669,521 +3066,164 @@
     </row>
     <row r="53" spans="1:24">
       <c r="C53" s="5"/>
-      <c r="D53" s="19" t="s">
+      <c r="D53" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
-      <c r="V53" s="6"/>
-      <c r="W53" s="6"/>
-      <c r="X53" s="7"/>
+      <c r="X53" s="6"/>
     </row>
     <row r="54" spans="1:24">
       <c r="C54" s="5"/>
-      <c r="D54" s="19" t="s">
+      <c r="D54" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="6"/>
-      <c r="W54" s="6"/>
-      <c r="X54" s="7"/>
+      <c r="X54" s="6"/>
     </row>
     <row r="55" spans="1:24">
       <c r="C55" s="5"/>
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
-      <c r="U55" s="6"/>
-      <c r="V55" s="6"/>
-      <c r="W55" s="6"/>
-      <c r="X55" s="7"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="X55" s="6"/>
     </row>
     <row r="56" spans="1:24">
       <c r="C56" s="5"/>
-      <c r="D56" s="19" t="s">
+      <c r="D56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="6"/>
-      <c r="U56" s="6"/>
-      <c r="V56" s="6"/>
-      <c r="W56" s="6"/>
-      <c r="X56" s="7"/>
+      <c r="X56" s="6"/>
     </row>
     <row r="57" spans="1:24">
       <c r="C57" s="5"/>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
-      <c r="U57" s="6"/>
-      <c r="V57" s="6"/>
-      <c r="W57" s="6"/>
-      <c r="X57" s="7"/>
+      <c r="X57" s="6"/>
     </row>
     <row r="58" spans="1:24">
       <c r="C58" s="5"/>
-      <c r="D58" s="19" t="s">
+      <c r="D58" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="7"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="X58" s="6"/>
     </row>
     <row r="59" spans="1:24">
       <c r="C59" s="5"/>
-      <c r="D59" s="19" t="s">
+      <c r="D59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6"/>
-      <c r="W59" s="6"/>
-      <c r="X59" s="7"/>
+      <c r="X59" s="6"/>
     </row>
     <row r="60" spans="1:24">
       <c r="C60" s="5"/>
-      <c r="D60" s="19" t="s">
+      <c r="D60" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="6"/>
-      <c r="U60" s="6"/>
-      <c r="V60" s="6"/>
-      <c r="W60" s="6"/>
-      <c r="X60" s="7"/>
+      <c r="X60" s="6"/>
     </row>
     <row r="61" spans="1:24">
       <c r="C61" s="5"/>
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
-      <c r="U61" s="6"/>
-      <c r="V61" s="6"/>
-      <c r="W61" s="6"/>
-      <c r="X61" s="7"/>
+      <c r="X61" s="6"/>
     </row>
     <row r="62" spans="1:24">
       <c r="C62" s="5"/>
-      <c r="D62" s="19" t="s">
+      <c r="D62" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="6"/>
-      <c r="S62" s="6"/>
-      <c r="T62" s="6"/>
-      <c r="U62" s="6"/>
-      <c r="V62" s="6"/>
-      <c r="W62" s="6"/>
-      <c r="X62" s="7"/>
+      <c r="X62" s="6"/>
     </row>
     <row r="63" spans="1:24">
       <c r="C63" s="5"/>
-      <c r="D63" s="19" t="s">
+      <c r="D63" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
-      <c r="R63" s="6"/>
-      <c r="S63" s="6"/>
-      <c r="T63" s="6"/>
-      <c r="U63" s="6"/>
-      <c r="V63" s="6"/>
-      <c r="W63" s="6"/>
-      <c r="X63" s="7"/>
+      <c r="X63" s="6"/>
     </row>
     <row r="64" spans="1:24">
       <c r="C64" s="5"/>
-      <c r="D64" s="19" t="s">
+      <c r="D64" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="6"/>
-      <c r="S64" s="6"/>
-      <c r="T64" s="6"/>
-      <c r="U64" s="6"/>
-      <c r="V64" s="6"/>
-      <c r="W64" s="6"/>
-      <c r="X64" s="7"/>
+      <c r="X64" s="6"/>
     </row>
     <row r="65" spans="1:24">
       <c r="C65" s="5"/>
-      <c r="D65" s="19" t="s">
+      <c r="D65" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="6"/>
-      <c r="S65" s="6"/>
-      <c r="T65" s="6"/>
-      <c r="U65" s="6"/>
-      <c r="V65" s="6"/>
-      <c r="W65" s="6"/>
-      <c r="X65" s="7"/>
+      <c r="X65" s="6"/>
     </row>
     <row r="66" spans="1:24">
       <c r="C66" s="5"/>
-      <c r="D66" s="19" t="s">
+      <c r="D66" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
-      <c r="U66" s="6"/>
-      <c r="V66" s="6"/>
-      <c r="W66" s="6"/>
-      <c r="X66" s="7"/>
+      <c r="X66" s="6"/>
     </row>
     <row r="67" spans="1:24">
       <c r="C67" s="5"/>
-      <c r="D67" s="19" t="s">
+      <c r="D67" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
-      <c r="S67" s="6"/>
-      <c r="T67" s="6"/>
-      <c r="U67" s="6"/>
-      <c r="V67" s="6"/>
-      <c r="W67" s="6"/>
-      <c r="X67" s="7"/>
+      <c r="X67" s="6"/>
     </row>
     <row r="68" spans="1:24">
       <c r="C68" s="5"/>
-      <c r="D68" s="19" t="s">
+      <c r="D68" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
-      <c r="S68" s="6"/>
-      <c r="T68" s="6"/>
-      <c r="U68" s="6"/>
-      <c r="V68" s="6"/>
-      <c r="W68" s="6"/>
-      <c r="X68" s="7"/>
+      <c r="X68" s="6"/>
     </row>
     <row r="69" spans="1:24">
       <c r="C69" s="5"/>
-      <c r="D69" s="19" t="s">
+      <c r="D69" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
-      <c r="R69" s="6"/>
-      <c r="S69" s="6"/>
-      <c r="T69" s="6"/>
-      <c r="U69" s="6"/>
-      <c r="V69" s="6"/>
-      <c r="W69" s="6"/>
-      <c r="X69" s="7"/>
+      <c r="X69" s="6"/>
     </row>
     <row r="70" spans="1:24">
       <c r="C70" s="5"/>
-      <c r="D70" s="19" t="s">
+      <c r="D70" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
-      <c r="U70" s="6"/>
-      <c r="V70" s="6"/>
-      <c r="W70" s="6"/>
-      <c r="X70" s="7"/>
+      <c r="X70" s="6"/>
     </row>
     <row r="71" spans="1:24">
       <c r="C71" s="5"/>
-      <c r="D71" s="19" t="s">
+      <c r="D71" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
-      <c r="R71" s="6"/>
-      <c r="S71" s="6"/>
-      <c r="T71" s="6"/>
-      <c r="U71" s="6"/>
-      <c r="V71" s="6"/>
-      <c r="W71" s="6"/>
-      <c r="X71" s="7"/>
+      <c r="X71" s="6"/>
     </row>
     <row r="72" spans="1:24" ht="21" thickBot="1">
-      <c r="C72" s="8"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="9"/>
-      <c r="M72" s="9"/>
-      <c r="N72" s="9"/>
-      <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="9"/>
-      <c r="R72" s="9"/>
-      <c r="S72" s="9"/>
-      <c r="T72" s="9"/>
-      <c r="U72" s="9"/>
-      <c r="V72" s="9"/>
-      <c r="W72" s="9"/>
-      <c r="X72" s="10"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="8"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="8"/>
+      <c r="X72" s="9"/>
     </row>
     <row r="75" spans="1:24" ht="21" thickBot="1">
       <c r="A75" t="s">
@@ -4219,365 +3259,118 @@
     </row>
     <row r="77" spans="1:24">
       <c r="C77" s="5"/>
-      <c r="D77" s="13" t="s">
+      <c r="D77" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="6"/>
-      <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
-      <c r="P77" s="6"/>
-      <c r="Q77" s="6"/>
-      <c r="R77" s="6"/>
-      <c r="S77" s="6"/>
-      <c r="T77" s="6"/>
-      <c r="U77" s="6"/>
-      <c r="V77" s="6"/>
-      <c r="W77" s="6"/>
-      <c r="X77" s="7"/>
+      <c r="X77" s="6"/>
     </row>
     <row r="78" spans="1:24">
       <c r="C78" s="5"/>
-      <c r="D78" s="13" t="s">
+      <c r="D78" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="6"/>
-      <c r="R78" s="6"/>
-      <c r="S78" s="6"/>
-      <c r="T78" s="6"/>
-      <c r="U78" s="6"/>
-      <c r="V78" s="6"/>
-      <c r="W78" s="6"/>
-      <c r="X78" s="7"/>
+      <c r="X78" s="6"/>
     </row>
     <row r="79" spans="1:24">
       <c r="C79" s="5"/>
-      <c r="D79" s="13" t="s">
+      <c r="D79" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="6"/>
-      <c r="Q79" s="6"/>
-      <c r="R79" s="6"/>
-      <c r="S79" s="6"/>
-      <c r="T79" s="6"/>
-      <c r="U79" s="6"/>
-      <c r="V79" s="6"/>
-      <c r="W79" s="6"/>
-      <c r="X79" s="7"/>
+      <c r="X79" s="6"/>
     </row>
     <row r="80" spans="1:24">
       <c r="C80" s="5"/>
-      <c r="D80" s="19" t="s">
+      <c r="D80" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
-      <c r="O80" s="6"/>
-      <c r="P80" s="6"/>
-      <c r="Q80" s="6"/>
-      <c r="R80" s="6"/>
-      <c r="S80" s="6"/>
-      <c r="T80" s="6"/>
-      <c r="U80" s="6"/>
-      <c r="V80" s="6"/>
-      <c r="W80" s="6"/>
-      <c r="X80" s="7"/>
+      <c r="X80" s="6"/>
     </row>
     <row r="81" spans="1:24">
       <c r="C81" s="5"/>
-      <c r="D81" s="19" t="s">
+      <c r="D81" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
-      <c r="P81" s="6"/>
-      <c r="Q81" s="6"/>
-      <c r="R81" s="6"/>
-      <c r="S81" s="6"/>
-      <c r="T81" s="6"/>
-      <c r="U81" s="6"/>
-      <c r="V81" s="6"/>
-      <c r="W81" s="6"/>
-      <c r="X81" s="7"/>
+      <c r="X81" s="6"/>
     </row>
     <row r="82" spans="1:24">
       <c r="C82" s="5"/>
-      <c r="D82" s="19" t="s">
+      <c r="D82" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="6"/>
-      <c r="R82" s="6"/>
-      <c r="S82" s="6"/>
-      <c r="T82" s="6"/>
-      <c r="U82" s="6"/>
-      <c r="V82" s="6"/>
-      <c r="W82" s="6"/>
-      <c r="X82" s="7"/>
+      <c r="X82" s="6"/>
     </row>
     <row r="83" spans="1:24">
       <c r="C83" s="5"/>
-      <c r="D83" s="19" t="s">
+      <c r="D83" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="6"/>
-      <c r="P83" s="6"/>
-      <c r="Q83" s="6"/>
-      <c r="R83" s="6"/>
-      <c r="S83" s="6"/>
-      <c r="T83" s="6"/>
-      <c r="U83" s="6"/>
-      <c r="V83" s="6"/>
-      <c r="W83" s="6"/>
-      <c r="X83" s="7"/>
+      <c r="X83" s="6"/>
     </row>
     <row r="84" spans="1:24">
       <c r="C84" s="5"/>
-      <c r="D84" s="13" t="s">
+      <c r="D84" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-      <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
-      <c r="O84" s="6"/>
-      <c r="P84" s="6"/>
-      <c r="Q84" s="6"/>
-      <c r="R84" s="6"/>
-      <c r="S84" s="6"/>
-      <c r="T84" s="6"/>
-      <c r="U84" s="6"/>
-      <c r="V84" s="6"/>
-      <c r="W84" s="6"/>
-      <c r="X84" s="7"/>
+      <c r="X84" s="6"/>
     </row>
     <row r="85" spans="1:24">
       <c r="C85" s="5"/>
-      <c r="D85" s="13" t="s">
+      <c r="D85" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="6"/>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="6"/>
-      <c r="R85" s="6"/>
-      <c r="S85" s="6"/>
-      <c r="T85" s="6"/>
-      <c r="U85" s="6"/>
-      <c r="V85" s="6"/>
-      <c r="W85" s="6"/>
-      <c r="X85" s="7"/>
+      <c r="X85" s="6"/>
     </row>
     <row r="86" spans="1:24">
       <c r="C86" s="5"/>
-      <c r="D86" s="13" t="s">
+      <c r="D86" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="6"/>
-      <c r="R86" s="6"/>
-      <c r="S86" s="6"/>
-      <c r="T86" s="6"/>
-      <c r="U86" s="6"/>
-      <c r="V86" s="6"/>
-      <c r="W86" s="6"/>
-      <c r="X86" s="7"/>
+      <c r="X86" s="6"/>
     </row>
     <row r="87" spans="1:24">
       <c r="C87" s="5"/>
-      <c r="D87" s="13" t="s">
+      <c r="D87" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="6"/>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="6"/>
-      <c r="R87" s="6"/>
-      <c r="S87" s="6"/>
-      <c r="T87" s="6"/>
-      <c r="U87" s="6"/>
-      <c r="V87" s="6"/>
-      <c r="W87" s="6"/>
-      <c r="X87" s="7"/>
+      <c r="X87" s="6"/>
     </row>
     <row r="88" spans="1:24">
       <c r="C88" s="5"/>
-      <c r="D88" s="13" t="s">
+      <c r="D88" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
-      <c r="N88" s="6"/>
-      <c r="O88" s="6"/>
-      <c r="P88" s="6"/>
-      <c r="Q88" s="6"/>
-      <c r="R88" s="6"/>
-      <c r="S88" s="6"/>
-      <c r="T88" s="6"/>
-      <c r="U88" s="6"/>
-      <c r="V88" s="6"/>
-      <c r="W88" s="6"/>
-      <c r="X88" s="7"/>
+      <c r="X88" s="6"/>
     </row>
     <row r="89" spans="1:24">
       <c r="C89" s="5"/>
-      <c r="D89" s="13" t="s">
+      <c r="D89" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
-      <c r="M89" s="6"/>
-      <c r="N89" s="6"/>
-      <c r="O89" s="6"/>
-      <c r="P89" s="6"/>
-      <c r="Q89" s="6"/>
-      <c r="R89" s="6"/>
-      <c r="S89" s="6"/>
-      <c r="T89" s="6"/>
-      <c r="U89" s="6"/>
-      <c r="V89" s="6"/>
-      <c r="W89" s="6"/>
-      <c r="X89" s="7"/>
+      <c r="X89" s="6"/>
     </row>
     <row r="90" spans="1:24" ht="21" thickBot="1">
-      <c r="C90" s="8"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="9"/>
-      <c r="J90" s="9"/>
-      <c r="K90" s="9"/>
-      <c r="L90" s="9"/>
-      <c r="M90" s="9"/>
-      <c r="N90" s="9"/>
-      <c r="O90" s="9"/>
-      <c r="P90" s="9"/>
-      <c r="Q90" s="9"/>
-      <c r="R90" s="9"/>
-      <c r="S90" s="9"/>
-      <c r="T90" s="9"/>
-      <c r="U90" s="9"/>
-      <c r="V90" s="9"/>
-      <c r="W90" s="9"/>
-      <c r="X90" s="10"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="8"/>
+      <c r="O90" s="8"/>
+      <c r="P90" s="8"/>
+      <c r="Q90" s="8"/>
+      <c r="R90" s="8"/>
+      <c r="S90" s="8"/>
+      <c r="T90" s="8"/>
+      <c r="U90" s="8"/>
+      <c r="V90" s="8"/>
+      <c r="W90" s="8"/>
+      <c r="X90" s="9"/>
     </row>
     <row r="93" spans="1:24" ht="21" thickBot="1">
       <c r="A93" t="s">
@@ -4588,1430 +3381,1430 @@
       </c>
     </row>
     <row r="94" spans="1:24">
-      <c r="C94" s="25" t="s">
+      <c r="C94" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
-      <c r="F94" s="26"/>
-      <c r="G94" s="26"/>
-      <c r="H94" s="26"/>
-      <c r="I94" s="26"/>
-      <c r="J94" s="26"/>
-      <c r="K94" s="26"/>
-      <c r="L94" s="26"/>
-      <c r="M94" s="26"/>
-      <c r="N94" s="26"/>
-      <c r="O94" s="26"/>
-      <c r="P94" s="26"/>
-      <c r="Q94" s="26"/>
-      <c r="R94" s="26"/>
-      <c r="S94" s="26"/>
-      <c r="T94" s="26"/>
-      <c r="U94" s="26"/>
-      <c r="V94" s="26"/>
-      <c r="W94" s="26"/>
-      <c r="X94" s="27"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="22"/>
+      <c r="J94" s="22"/>
+      <c r="K94" s="22"/>
+      <c r="L94" s="22"/>
+      <c r="M94" s="22"/>
+      <c r="N94" s="22"/>
+      <c r="O94" s="22"/>
+      <c r="P94" s="22"/>
+      <c r="Q94" s="22"/>
+      <c r="R94" s="22"/>
+      <c r="S94" s="22"/>
+      <c r="T94" s="22"/>
+      <c r="U94" s="22"/>
+      <c r="V94" s="22"/>
+      <c r="W94" s="22"/>
+      <c r="X94" s="23"/>
     </row>
     <row r="95" spans="1:24">
-      <c r="C95" s="28"/>
-      <c r="D95" s="29"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="29"/>
-      <c r="G95" s="29"/>
-      <c r="H95" s="29"/>
-      <c r="I95" s="29"/>
-      <c r="J95" s="29"/>
-      <c r="K95" s="29"/>
-      <c r="L95" s="29"/>
-      <c r="M95" s="29"/>
-      <c r="N95" s="29"/>
-      <c r="O95" s="29"/>
-      <c r="P95" s="29"/>
-      <c r="Q95" s="29"/>
-      <c r="R95" s="29"/>
-      <c r="S95" s="29"/>
-      <c r="T95" s="29"/>
-      <c r="U95" s="29"/>
-      <c r="V95" s="29"/>
-      <c r="W95" s="29"/>
-      <c r="X95" s="30"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="25"/>
+      <c r="I95" s="25"/>
+      <c r="J95" s="25"/>
+      <c r="K95" s="25"/>
+      <c r="L95" s="25"/>
+      <c r="M95" s="25"/>
+      <c r="N95" s="25"/>
+      <c r="O95" s="25"/>
+      <c r="P95" s="25"/>
+      <c r="Q95" s="25"/>
+      <c r="R95" s="25"/>
+      <c r="S95" s="25"/>
+      <c r="T95" s="25"/>
+      <c r="U95" s="25"/>
+      <c r="V95" s="25"/>
+      <c r="W95" s="25"/>
+      <c r="X95" s="26"/>
     </row>
     <row r="96" spans="1:24">
-      <c r="C96" s="28"/>
-      <c r="D96" s="29"/>
-      <c r="E96" s="29"/>
-      <c r="F96" s="29"/>
-      <c r="G96" s="29"/>
-      <c r="H96" s="29"/>
-      <c r="I96" s="29"/>
-      <c r="J96" s="29"/>
-      <c r="K96" s="29"/>
-      <c r="L96" s="29"/>
-      <c r="M96" s="29"/>
-      <c r="N96" s="29"/>
-      <c r="O96" s="29"/>
-      <c r="P96" s="29"/>
-      <c r="Q96" s="29"/>
-      <c r="R96" s="29"/>
-      <c r="S96" s="29"/>
-      <c r="T96" s="29"/>
-      <c r="U96" s="29"/>
-      <c r="V96" s="29"/>
-      <c r="W96" s="29"/>
-      <c r="X96" s="30"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="25"/>
+      <c r="K96" s="25"/>
+      <c r="L96" s="25"/>
+      <c r="M96" s="25"/>
+      <c r="N96" s="25"/>
+      <c r="O96" s="25"/>
+      <c r="P96" s="25"/>
+      <c r="Q96" s="25"/>
+      <c r="R96" s="25"/>
+      <c r="S96" s="25"/>
+      <c r="T96" s="25"/>
+      <c r="U96" s="25"/>
+      <c r="V96" s="25"/>
+      <c r="W96" s="25"/>
+      <c r="X96" s="26"/>
     </row>
     <row r="97" spans="3:24">
-      <c r="C97" s="28"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="29"/>
-      <c r="I97" s="29"/>
-      <c r="J97" s="29"/>
-      <c r="K97" s="29"/>
-      <c r="L97" s="29"/>
-      <c r="M97" s="29"/>
-      <c r="N97" s="29"/>
-      <c r="O97" s="29"/>
-      <c r="P97" s="29"/>
-      <c r="Q97" s="29"/>
-      <c r="R97" s="29"/>
-      <c r="S97" s="29"/>
-      <c r="T97" s="29"/>
-      <c r="U97" s="29"/>
-      <c r="V97" s="29"/>
-      <c r="W97" s="29"/>
-      <c r="X97" s="30"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="25"/>
+      <c r="K97" s="25"/>
+      <c r="L97" s="25"/>
+      <c r="M97" s="25"/>
+      <c r="N97" s="25"/>
+      <c r="O97" s="25"/>
+      <c r="P97" s="25"/>
+      <c r="Q97" s="25"/>
+      <c r="R97" s="25"/>
+      <c r="S97" s="25"/>
+      <c r="T97" s="25"/>
+      <c r="U97" s="25"/>
+      <c r="V97" s="25"/>
+      <c r="W97" s="25"/>
+      <c r="X97" s="26"/>
     </row>
     <row r="98" spans="3:24">
-      <c r="C98" s="28"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="29"/>
-      <c r="H98" s="29"/>
-      <c r="I98" s="29"/>
-      <c r="J98" s="29"/>
-      <c r="K98" s="29"/>
-      <c r="L98" s="29"/>
-      <c r="M98" s="29"/>
-      <c r="N98" s="29"/>
-      <c r="O98" s="29"/>
-      <c r="P98" s="29"/>
-      <c r="Q98" s="29"/>
-      <c r="R98" s="29"/>
-      <c r="S98" s="29"/>
-      <c r="T98" s="29"/>
-      <c r="U98" s="29"/>
-      <c r="V98" s="29"/>
-      <c r="W98" s="29"/>
-      <c r="X98" s="30"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="25"/>
+      <c r="K98" s="25"/>
+      <c r="L98" s="25"/>
+      <c r="M98" s="25"/>
+      <c r="N98" s="25"/>
+      <c r="O98" s="25"/>
+      <c r="P98" s="25"/>
+      <c r="Q98" s="25"/>
+      <c r="R98" s="25"/>
+      <c r="S98" s="25"/>
+      <c r="T98" s="25"/>
+      <c r="U98" s="25"/>
+      <c r="V98" s="25"/>
+      <c r="W98" s="25"/>
+      <c r="X98" s="26"/>
     </row>
     <row r="99" spans="3:24">
-      <c r="C99" s="28"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="29"/>
-      <c r="F99" s="29"/>
-      <c r="G99" s="29"/>
-      <c r="H99" s="29"/>
-      <c r="I99" s="29"/>
-      <c r="J99" s="29"/>
-      <c r="K99" s="29"/>
-      <c r="L99" s="29"/>
-      <c r="M99" s="29"/>
-      <c r="N99" s="29"/>
-      <c r="O99" s="29"/>
-      <c r="P99" s="29"/>
-      <c r="Q99" s="29"/>
-      <c r="R99" s="29"/>
-      <c r="S99" s="29"/>
-      <c r="T99" s="29"/>
-      <c r="U99" s="29"/>
-      <c r="V99" s="29"/>
-      <c r="W99" s="29"/>
-      <c r="X99" s="30"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="25"/>
+      <c r="K99" s="25"/>
+      <c r="L99" s="25"/>
+      <c r="M99" s="25"/>
+      <c r="N99" s="25"/>
+      <c r="O99" s="25"/>
+      <c r="P99" s="25"/>
+      <c r="Q99" s="25"/>
+      <c r="R99" s="25"/>
+      <c r="S99" s="25"/>
+      <c r="T99" s="25"/>
+      <c r="U99" s="25"/>
+      <c r="V99" s="25"/>
+      <c r="W99" s="25"/>
+      <c r="X99" s="26"/>
     </row>
     <row r="100" spans="3:24">
-      <c r="C100" s="28"/>
-      <c r="D100" s="29"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="29"/>
-      <c r="G100" s="29"/>
-      <c r="H100" s="29"/>
-      <c r="I100" s="29"/>
-      <c r="J100" s="29"/>
-      <c r="K100" s="29"/>
-      <c r="L100" s="29"/>
-      <c r="M100" s="29"/>
-      <c r="N100" s="29"/>
-      <c r="O100" s="29"/>
-      <c r="P100" s="29"/>
-      <c r="Q100" s="29"/>
-      <c r="R100" s="29"/>
-      <c r="S100" s="29"/>
-      <c r="T100" s="29"/>
-      <c r="U100" s="29"/>
-      <c r="V100" s="29"/>
-      <c r="W100" s="29"/>
-      <c r="X100" s="30"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="25"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="25"/>
+      <c r="K100" s="25"/>
+      <c r="L100" s="25"/>
+      <c r="M100" s="25"/>
+      <c r="N100" s="25"/>
+      <c r="O100" s="25"/>
+      <c r="P100" s="25"/>
+      <c r="Q100" s="25"/>
+      <c r="R100" s="25"/>
+      <c r="S100" s="25"/>
+      <c r="T100" s="25"/>
+      <c r="U100" s="25"/>
+      <c r="V100" s="25"/>
+      <c r="W100" s="25"/>
+      <c r="X100" s="26"/>
     </row>
     <row r="101" spans="3:24">
-      <c r="C101" s="28"/>
-      <c r="D101" s="29"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="29"/>
-      <c r="H101" s="29"/>
-      <c r="I101" s="29"/>
-      <c r="J101" s="29"/>
-      <c r="K101" s="29"/>
-      <c r="L101" s="29"/>
-      <c r="M101" s="29"/>
-      <c r="N101" s="29"/>
-      <c r="O101" s="29"/>
-      <c r="P101" s="29"/>
-      <c r="Q101" s="29"/>
-      <c r="R101" s="29"/>
-      <c r="S101" s="29"/>
-      <c r="T101" s="29"/>
-      <c r="U101" s="29"/>
-      <c r="V101" s="29"/>
-      <c r="W101" s="29"/>
-      <c r="X101" s="30"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="25"/>
+      <c r="H101" s="25"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="25"/>
+      <c r="K101" s="25"/>
+      <c r="L101" s="25"/>
+      <c r="M101" s="25"/>
+      <c r="N101" s="25"/>
+      <c r="O101" s="25"/>
+      <c r="P101" s="25"/>
+      <c r="Q101" s="25"/>
+      <c r="R101" s="25"/>
+      <c r="S101" s="25"/>
+      <c r="T101" s="25"/>
+      <c r="U101" s="25"/>
+      <c r="V101" s="25"/>
+      <c r="W101" s="25"/>
+      <c r="X101" s="26"/>
     </row>
     <row r="102" spans="3:24">
-      <c r="C102" s="28"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="29"/>
-      <c r="H102" s="29"/>
-      <c r="I102" s="29"/>
-      <c r="J102" s="29"/>
-      <c r="K102" s="29"/>
-      <c r="L102" s="29"/>
-      <c r="M102" s="29"/>
-      <c r="N102" s="29"/>
-      <c r="O102" s="29"/>
-      <c r="P102" s="29"/>
-      <c r="Q102" s="29"/>
-      <c r="R102" s="29"/>
-      <c r="S102" s="29"/>
-      <c r="T102" s="29"/>
-      <c r="U102" s="29"/>
-      <c r="V102" s="29"/>
-      <c r="W102" s="29"/>
-      <c r="X102" s="30"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="25"/>
+      <c r="I102" s="25"/>
+      <c r="J102" s="25"/>
+      <c r="K102" s="25"/>
+      <c r="L102" s="25"/>
+      <c r="M102" s="25"/>
+      <c r="N102" s="25"/>
+      <c r="O102" s="25"/>
+      <c r="P102" s="25"/>
+      <c r="Q102" s="25"/>
+      <c r="R102" s="25"/>
+      <c r="S102" s="25"/>
+      <c r="T102" s="25"/>
+      <c r="U102" s="25"/>
+      <c r="V102" s="25"/>
+      <c r="W102" s="25"/>
+      <c r="X102" s="26"/>
     </row>
     <row r="103" spans="3:24">
-      <c r="C103" s="28"/>
-      <c r="D103" s="29"/>
-      <c r="E103" s="29"/>
-      <c r="F103" s="29"/>
-      <c r="G103" s="29"/>
-      <c r="H103" s="29"/>
-      <c r="I103" s="29"/>
-      <c r="J103" s="29"/>
-      <c r="K103" s="29"/>
-      <c r="L103" s="29"/>
-      <c r="M103" s="29"/>
-      <c r="N103" s="29"/>
-      <c r="O103" s="29"/>
-      <c r="P103" s="29"/>
-      <c r="Q103" s="29"/>
-      <c r="R103" s="29"/>
-      <c r="S103" s="29"/>
-      <c r="T103" s="29"/>
-      <c r="U103" s="29"/>
-      <c r="V103" s="29"/>
-      <c r="W103" s="29"/>
-      <c r="X103" s="30"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="25"/>
+      <c r="I103" s="25"/>
+      <c r="J103" s="25"/>
+      <c r="K103" s="25"/>
+      <c r="L103" s="25"/>
+      <c r="M103" s="25"/>
+      <c r="N103" s="25"/>
+      <c r="O103" s="25"/>
+      <c r="P103" s="25"/>
+      <c r="Q103" s="25"/>
+      <c r="R103" s="25"/>
+      <c r="S103" s="25"/>
+      <c r="T103" s="25"/>
+      <c r="U103" s="25"/>
+      <c r="V103" s="25"/>
+      <c r="W103" s="25"/>
+      <c r="X103" s="26"/>
     </row>
     <row r="104" spans="3:24">
-      <c r="C104" s="28"/>
-      <c r="D104" s="29"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="29"/>
-      <c r="G104" s="29"/>
-      <c r="H104" s="29"/>
-      <c r="I104" s="29"/>
-      <c r="J104" s="29"/>
-      <c r="K104" s="29"/>
-      <c r="L104" s="29"/>
-      <c r="M104" s="29"/>
-      <c r="N104" s="29"/>
-      <c r="O104" s="29"/>
-      <c r="P104" s="29"/>
-      <c r="Q104" s="29"/>
-      <c r="R104" s="29"/>
-      <c r="S104" s="29"/>
-      <c r="T104" s="29"/>
-      <c r="U104" s="29"/>
-      <c r="V104" s="29"/>
-      <c r="W104" s="29"/>
-      <c r="X104" s="30"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="25"/>
+      <c r="I104" s="25"/>
+      <c r="J104" s="25"/>
+      <c r="K104" s="25"/>
+      <c r="L104" s="25"/>
+      <c r="M104" s="25"/>
+      <c r="N104" s="25"/>
+      <c r="O104" s="25"/>
+      <c r="P104" s="25"/>
+      <c r="Q104" s="25"/>
+      <c r="R104" s="25"/>
+      <c r="S104" s="25"/>
+      <c r="T104" s="25"/>
+      <c r="U104" s="25"/>
+      <c r="V104" s="25"/>
+      <c r="W104" s="25"/>
+      <c r="X104" s="26"/>
     </row>
     <row r="105" spans="3:24">
-      <c r="C105" s="28"/>
-      <c r="D105" s="29"/>
-      <c r="E105" s="29"/>
-      <c r="F105" s="29"/>
-      <c r="G105" s="29"/>
-      <c r="H105" s="29"/>
-      <c r="I105" s="29"/>
-      <c r="J105" s="29"/>
-      <c r="K105" s="29"/>
-      <c r="L105" s="29"/>
-      <c r="M105" s="29"/>
-      <c r="N105" s="29"/>
-      <c r="O105" s="29"/>
-      <c r="P105" s="29"/>
-      <c r="Q105" s="29"/>
-      <c r="R105" s="29"/>
-      <c r="S105" s="29"/>
-      <c r="T105" s="29"/>
-      <c r="U105" s="29"/>
-      <c r="V105" s="29"/>
-      <c r="W105" s="29"/>
-      <c r="X105" s="30"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="25"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="25"/>
+      <c r="I105" s="25"/>
+      <c r="J105" s="25"/>
+      <c r="K105" s="25"/>
+      <c r="L105" s="25"/>
+      <c r="M105" s="25"/>
+      <c r="N105" s="25"/>
+      <c r="O105" s="25"/>
+      <c r="P105" s="25"/>
+      <c r="Q105" s="25"/>
+      <c r="R105" s="25"/>
+      <c r="S105" s="25"/>
+      <c r="T105" s="25"/>
+      <c r="U105" s="25"/>
+      <c r="V105" s="25"/>
+      <c r="W105" s="25"/>
+      <c r="X105" s="26"/>
     </row>
     <row r="106" spans="3:24">
-      <c r="C106" s="28"/>
-      <c r="D106" s="29"/>
-      <c r="E106" s="29"/>
-      <c r="F106" s="29"/>
-      <c r="G106" s="29"/>
-      <c r="H106" s="29"/>
-      <c r="I106" s="29"/>
-      <c r="J106" s="29"/>
-      <c r="K106" s="29"/>
-      <c r="L106" s="29"/>
-      <c r="M106" s="29"/>
-      <c r="N106" s="29"/>
-      <c r="O106" s="29"/>
-      <c r="P106" s="29"/>
-      <c r="Q106" s="29"/>
-      <c r="R106" s="29"/>
-      <c r="S106" s="29"/>
-      <c r="T106" s="29"/>
-      <c r="U106" s="29"/>
-      <c r="V106" s="29"/>
-      <c r="W106" s="29"/>
-      <c r="X106" s="30"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="25"/>
+      <c r="E106" s="25"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="25"/>
+      <c r="H106" s="25"/>
+      <c r="I106" s="25"/>
+      <c r="J106" s="25"/>
+      <c r="K106" s="25"/>
+      <c r="L106" s="25"/>
+      <c r="M106" s="25"/>
+      <c r="N106" s="25"/>
+      <c r="O106" s="25"/>
+      <c r="P106" s="25"/>
+      <c r="Q106" s="25"/>
+      <c r="R106" s="25"/>
+      <c r="S106" s="25"/>
+      <c r="T106" s="25"/>
+      <c r="U106" s="25"/>
+      <c r="V106" s="25"/>
+      <c r="W106" s="25"/>
+      <c r="X106" s="26"/>
     </row>
     <row r="107" spans="3:24">
-      <c r="C107" s="28"/>
-      <c r="D107" s="29"/>
-      <c r="E107" s="29"/>
-      <c r="F107" s="29"/>
-      <c r="G107" s="29"/>
-      <c r="H107" s="29"/>
-      <c r="I107" s="29"/>
-      <c r="J107" s="29"/>
-      <c r="K107" s="29"/>
-      <c r="L107" s="29"/>
-      <c r="M107" s="29"/>
-      <c r="N107" s="29"/>
-      <c r="O107" s="29"/>
-      <c r="P107" s="29"/>
-      <c r="Q107" s="29"/>
-      <c r="R107" s="29"/>
-      <c r="S107" s="29"/>
-      <c r="T107" s="29"/>
-      <c r="U107" s="29"/>
-      <c r="V107" s="29"/>
-      <c r="W107" s="29"/>
-      <c r="X107" s="30"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="25"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="25"/>
+      <c r="H107" s="25"/>
+      <c r="I107" s="25"/>
+      <c r="J107" s="25"/>
+      <c r="K107" s="25"/>
+      <c r="L107" s="25"/>
+      <c r="M107" s="25"/>
+      <c r="N107" s="25"/>
+      <c r="O107" s="25"/>
+      <c r="P107" s="25"/>
+      <c r="Q107" s="25"/>
+      <c r="R107" s="25"/>
+      <c r="S107" s="25"/>
+      <c r="T107" s="25"/>
+      <c r="U107" s="25"/>
+      <c r="V107" s="25"/>
+      <c r="W107" s="25"/>
+      <c r="X107" s="26"/>
     </row>
     <row r="108" spans="3:24">
-      <c r="C108" s="28"/>
-      <c r="D108" s="29"/>
-      <c r="E108" s="29"/>
-      <c r="F108" s="29"/>
-      <c r="G108" s="29"/>
-      <c r="H108" s="29"/>
-      <c r="I108" s="29"/>
-      <c r="J108" s="29"/>
-      <c r="K108" s="29"/>
-      <c r="L108" s="29"/>
-      <c r="M108" s="29"/>
-      <c r="N108" s="29"/>
-      <c r="O108" s="29"/>
-      <c r="P108" s="29"/>
-      <c r="Q108" s="29"/>
-      <c r="R108" s="29"/>
-      <c r="S108" s="29"/>
-      <c r="T108" s="29"/>
-      <c r="U108" s="29"/>
-      <c r="V108" s="29"/>
-      <c r="W108" s="29"/>
-      <c r="X108" s="30"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="25"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="25"/>
+      <c r="I108" s="25"/>
+      <c r="J108" s="25"/>
+      <c r="K108" s="25"/>
+      <c r="L108" s="25"/>
+      <c r="M108" s="25"/>
+      <c r="N108" s="25"/>
+      <c r="O108" s="25"/>
+      <c r="P108" s="25"/>
+      <c r="Q108" s="25"/>
+      <c r="R108" s="25"/>
+      <c r="S108" s="25"/>
+      <c r="T108" s="25"/>
+      <c r="U108" s="25"/>
+      <c r="V108" s="25"/>
+      <c r="W108" s="25"/>
+      <c r="X108" s="26"/>
     </row>
     <row r="109" spans="3:24">
-      <c r="C109" s="28"/>
-      <c r="D109" s="29"/>
-      <c r="E109" s="29"/>
-      <c r="F109" s="29"/>
-      <c r="G109" s="29"/>
-      <c r="H109" s="29"/>
-      <c r="I109" s="29"/>
-      <c r="J109" s="29"/>
-      <c r="K109" s="29"/>
-      <c r="L109" s="29"/>
-      <c r="M109" s="29"/>
-      <c r="N109" s="29"/>
-      <c r="O109" s="29"/>
-      <c r="P109" s="29"/>
-      <c r="Q109" s="29"/>
-      <c r="R109" s="29"/>
-      <c r="S109" s="29"/>
-      <c r="T109" s="29"/>
-      <c r="U109" s="29"/>
-      <c r="V109" s="29"/>
-      <c r="W109" s="29"/>
-      <c r="X109" s="30"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="25"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="25"/>
+      <c r="H109" s="25"/>
+      <c r="I109" s="25"/>
+      <c r="J109" s="25"/>
+      <c r="K109" s="25"/>
+      <c r="L109" s="25"/>
+      <c r="M109" s="25"/>
+      <c r="N109" s="25"/>
+      <c r="O109" s="25"/>
+      <c r="P109" s="25"/>
+      <c r="Q109" s="25"/>
+      <c r="R109" s="25"/>
+      <c r="S109" s="25"/>
+      <c r="T109" s="25"/>
+      <c r="U109" s="25"/>
+      <c r="V109" s="25"/>
+      <c r="W109" s="25"/>
+      <c r="X109" s="26"/>
     </row>
     <row r="110" spans="3:24">
-      <c r="C110" s="28"/>
-      <c r="D110" s="29"/>
-      <c r="E110" s="29"/>
-      <c r="F110" s="29"/>
-      <c r="G110" s="29"/>
-      <c r="H110" s="29"/>
-      <c r="I110" s="29"/>
-      <c r="J110" s="29"/>
-      <c r="K110" s="29"/>
-      <c r="L110" s="29"/>
-      <c r="M110" s="29"/>
-      <c r="N110" s="29"/>
-      <c r="O110" s="29"/>
-      <c r="P110" s="29"/>
-      <c r="Q110" s="29"/>
-      <c r="R110" s="29"/>
-      <c r="S110" s="29"/>
-      <c r="T110" s="29"/>
-      <c r="U110" s="29"/>
-      <c r="V110" s="29"/>
-      <c r="W110" s="29"/>
-      <c r="X110" s="30"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="25"/>
+      <c r="E110" s="25"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="25"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="25"/>
+      <c r="K110" s="25"/>
+      <c r="L110" s="25"/>
+      <c r="M110" s="25"/>
+      <c r="N110" s="25"/>
+      <c r="O110" s="25"/>
+      <c r="P110" s="25"/>
+      <c r="Q110" s="25"/>
+      <c r="R110" s="25"/>
+      <c r="S110" s="25"/>
+      <c r="T110" s="25"/>
+      <c r="U110" s="25"/>
+      <c r="V110" s="25"/>
+      <c r="W110" s="25"/>
+      <c r="X110" s="26"/>
     </row>
     <row r="111" spans="3:24">
-      <c r="C111" s="28"/>
-      <c r="D111" s="29"/>
-      <c r="E111" s="29"/>
-      <c r="F111" s="29"/>
-      <c r="G111" s="29"/>
-      <c r="H111" s="29"/>
-      <c r="I111" s="29"/>
-      <c r="J111" s="29"/>
-      <c r="K111" s="29"/>
-      <c r="L111" s="29"/>
-      <c r="M111" s="29"/>
-      <c r="N111" s="29"/>
-      <c r="O111" s="29"/>
-      <c r="P111" s="29"/>
-      <c r="Q111" s="29"/>
-      <c r="R111" s="29"/>
-      <c r="S111" s="29"/>
-      <c r="T111" s="29"/>
-      <c r="U111" s="29"/>
-      <c r="V111" s="29"/>
-      <c r="W111" s="29"/>
-      <c r="X111" s="30"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="25"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="25"/>
+      <c r="H111" s="25"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="25"/>
+      <c r="K111" s="25"/>
+      <c r="L111" s="25"/>
+      <c r="M111" s="25"/>
+      <c r="N111" s="25"/>
+      <c r="O111" s="25"/>
+      <c r="P111" s="25"/>
+      <c r="Q111" s="25"/>
+      <c r="R111" s="25"/>
+      <c r="S111" s="25"/>
+      <c r="T111" s="25"/>
+      <c r="U111" s="25"/>
+      <c r="V111" s="25"/>
+      <c r="W111" s="25"/>
+      <c r="X111" s="26"/>
     </row>
     <row r="112" spans="3:24">
-      <c r="C112" s="28"/>
-      <c r="D112" s="29"/>
-      <c r="E112" s="29"/>
-      <c r="F112" s="29"/>
-      <c r="G112" s="29"/>
-      <c r="H112" s="29"/>
-      <c r="I112" s="29"/>
-      <c r="J112" s="29"/>
-      <c r="K112" s="29"/>
-      <c r="L112" s="29"/>
-      <c r="M112" s="29"/>
-      <c r="N112" s="29"/>
-      <c r="O112" s="29"/>
-      <c r="P112" s="29"/>
-      <c r="Q112" s="29"/>
-      <c r="R112" s="29"/>
-      <c r="S112" s="29"/>
-      <c r="T112" s="29"/>
-      <c r="U112" s="29"/>
-      <c r="V112" s="29"/>
-      <c r="W112" s="29"/>
-      <c r="X112" s="30"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="25"/>
+      <c r="K112" s="25"/>
+      <c r="L112" s="25"/>
+      <c r="M112" s="25"/>
+      <c r="N112" s="25"/>
+      <c r="O112" s="25"/>
+      <c r="P112" s="25"/>
+      <c r="Q112" s="25"/>
+      <c r="R112" s="25"/>
+      <c r="S112" s="25"/>
+      <c r="T112" s="25"/>
+      <c r="U112" s="25"/>
+      <c r="V112" s="25"/>
+      <c r="W112" s="25"/>
+      <c r="X112" s="26"/>
     </row>
     <row r="113" spans="2:24">
-      <c r="C113" s="28"/>
-      <c r="D113" s="29"/>
-      <c r="E113" s="29"/>
-      <c r="F113" s="29"/>
-      <c r="G113" s="29"/>
-      <c r="H113" s="29"/>
-      <c r="I113" s="29"/>
-      <c r="J113" s="29"/>
-      <c r="K113" s="29"/>
-      <c r="L113" s="29"/>
-      <c r="M113" s="29"/>
-      <c r="N113" s="29"/>
-      <c r="O113" s="29"/>
-      <c r="P113" s="29"/>
-      <c r="Q113" s="29"/>
-      <c r="R113" s="29"/>
-      <c r="S113" s="29"/>
-      <c r="T113" s="29"/>
-      <c r="U113" s="29"/>
-      <c r="V113" s="29"/>
-      <c r="W113" s="29"/>
-      <c r="X113" s="30"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="25"/>
+      <c r="E113" s="25"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="25"/>
+      <c r="H113" s="25"/>
+      <c r="I113" s="25"/>
+      <c r="J113" s="25"/>
+      <c r="K113" s="25"/>
+      <c r="L113" s="25"/>
+      <c r="M113" s="25"/>
+      <c r="N113" s="25"/>
+      <c r="O113" s="25"/>
+      <c r="P113" s="25"/>
+      <c r="Q113" s="25"/>
+      <c r="R113" s="25"/>
+      <c r="S113" s="25"/>
+      <c r="T113" s="25"/>
+      <c r="U113" s="25"/>
+      <c r="V113" s="25"/>
+      <c r="W113" s="25"/>
+      <c r="X113" s="26"/>
     </row>
     <row r="114" spans="2:24">
-      <c r="C114" s="28"/>
-      <c r="D114" s="29"/>
-      <c r="E114" s="29"/>
-      <c r="F114" s="29"/>
-      <c r="G114" s="29"/>
-      <c r="H114" s="29"/>
-      <c r="I114" s="29"/>
-      <c r="J114" s="29"/>
-      <c r="K114" s="29"/>
-      <c r="L114" s="29"/>
-      <c r="M114" s="29"/>
-      <c r="N114" s="29"/>
-      <c r="O114" s="29"/>
-      <c r="P114" s="29"/>
-      <c r="Q114" s="29"/>
-      <c r="R114" s="29"/>
-      <c r="S114" s="29"/>
-      <c r="T114" s="29"/>
-      <c r="U114" s="29"/>
-      <c r="V114" s="29"/>
-      <c r="W114" s="29"/>
-      <c r="X114" s="30"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="25"/>
+      <c r="E114" s="25"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="25"/>
+      <c r="H114" s="25"/>
+      <c r="I114" s="25"/>
+      <c r="J114" s="25"/>
+      <c r="K114" s="25"/>
+      <c r="L114" s="25"/>
+      <c r="M114" s="25"/>
+      <c r="N114" s="25"/>
+      <c r="O114" s="25"/>
+      <c r="P114" s="25"/>
+      <c r="Q114" s="25"/>
+      <c r="R114" s="25"/>
+      <c r="S114" s="25"/>
+      <c r="T114" s="25"/>
+      <c r="U114" s="25"/>
+      <c r="V114" s="25"/>
+      <c r="W114" s="25"/>
+      <c r="X114" s="26"/>
     </row>
     <row r="115" spans="2:24">
-      <c r="C115" s="28"/>
-      <c r="D115" s="29"/>
-      <c r="E115" s="29"/>
-      <c r="F115" s="29"/>
-      <c r="G115" s="29"/>
-      <c r="H115" s="29"/>
-      <c r="I115" s="29"/>
-      <c r="J115" s="29"/>
-      <c r="K115" s="29"/>
-      <c r="L115" s="29"/>
-      <c r="M115" s="29"/>
-      <c r="N115" s="29"/>
-      <c r="O115" s="29"/>
-      <c r="P115" s="29"/>
-      <c r="Q115" s="29"/>
-      <c r="R115" s="29"/>
-      <c r="S115" s="29"/>
-      <c r="T115" s="29"/>
-      <c r="U115" s="29"/>
-      <c r="V115" s="29"/>
-      <c r="W115" s="29"/>
-      <c r="X115" s="30"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="25"/>
+      <c r="H115" s="25"/>
+      <c r="I115" s="25"/>
+      <c r="J115" s="25"/>
+      <c r="K115" s="25"/>
+      <c r="L115" s="25"/>
+      <c r="M115" s="25"/>
+      <c r="N115" s="25"/>
+      <c r="O115" s="25"/>
+      <c r="P115" s="25"/>
+      <c r="Q115" s="25"/>
+      <c r="R115" s="25"/>
+      <c r="S115" s="25"/>
+      <c r="T115" s="25"/>
+      <c r="U115" s="25"/>
+      <c r="V115" s="25"/>
+      <c r="W115" s="25"/>
+      <c r="X115" s="26"/>
     </row>
     <row r="116" spans="2:24">
-      <c r="C116" s="28"/>
-      <c r="D116" s="29"/>
-      <c r="E116" s="29"/>
-      <c r="F116" s="29"/>
-      <c r="G116" s="29"/>
-      <c r="H116" s="29"/>
-      <c r="I116" s="29"/>
-      <c r="J116" s="29"/>
-      <c r="K116" s="29"/>
-      <c r="L116" s="29"/>
-      <c r="M116" s="29"/>
-      <c r="N116" s="29"/>
-      <c r="O116" s="29"/>
-      <c r="P116" s="29"/>
-      <c r="Q116" s="29"/>
-      <c r="R116" s="29"/>
-      <c r="S116" s="29"/>
-      <c r="T116" s="29"/>
-      <c r="U116" s="29"/>
-      <c r="V116" s="29"/>
-      <c r="W116" s="29"/>
-      <c r="X116" s="30"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="25"/>
+      <c r="E116" s="25"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="25"/>
+      <c r="H116" s="25"/>
+      <c r="I116" s="25"/>
+      <c r="J116" s="25"/>
+      <c r="K116" s="25"/>
+      <c r="L116" s="25"/>
+      <c r="M116" s="25"/>
+      <c r="N116" s="25"/>
+      <c r="O116" s="25"/>
+      <c r="P116" s="25"/>
+      <c r="Q116" s="25"/>
+      <c r="R116" s="25"/>
+      <c r="S116" s="25"/>
+      <c r="T116" s="25"/>
+      <c r="U116" s="25"/>
+      <c r="V116" s="25"/>
+      <c r="W116" s="25"/>
+      <c r="X116" s="26"/>
     </row>
     <row r="117" spans="2:24">
-      <c r="C117" s="28"/>
-      <c r="D117" s="29"/>
-      <c r="E117" s="29"/>
-      <c r="F117" s="29"/>
-      <c r="G117" s="29"/>
-      <c r="H117" s="29"/>
-      <c r="I117" s="29"/>
-      <c r="J117" s="29"/>
-      <c r="K117" s="29"/>
-      <c r="L117" s="29"/>
-      <c r="M117" s="29"/>
-      <c r="N117" s="29"/>
-      <c r="O117" s="29"/>
-      <c r="P117" s="29"/>
-      <c r="Q117" s="29"/>
-      <c r="R117" s="29"/>
-      <c r="S117" s="29"/>
-      <c r="T117" s="29"/>
-      <c r="U117" s="29"/>
-      <c r="V117" s="29"/>
-      <c r="W117" s="29"/>
-      <c r="X117" s="30"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="25"/>
+      <c r="E117" s="25"/>
+      <c r="F117" s="25"/>
+      <c r="G117" s="25"/>
+      <c r="H117" s="25"/>
+      <c r="I117" s="25"/>
+      <c r="J117" s="25"/>
+      <c r="K117" s="25"/>
+      <c r="L117" s="25"/>
+      <c r="M117" s="25"/>
+      <c r="N117" s="25"/>
+      <c r="O117" s="25"/>
+      <c r="P117" s="25"/>
+      <c r="Q117" s="25"/>
+      <c r="R117" s="25"/>
+      <c r="S117" s="25"/>
+      <c r="T117" s="25"/>
+      <c r="U117" s="25"/>
+      <c r="V117" s="25"/>
+      <c r="W117" s="25"/>
+      <c r="X117" s="26"/>
     </row>
     <row r="118" spans="2:24">
-      <c r="B118" s="23"/>
-      <c r="C118" s="28"/>
-      <c r="D118" s="29"/>
-      <c r="E118" s="29"/>
-      <c r="F118" s="29"/>
-      <c r="G118" s="29"/>
-      <c r="H118" s="29"/>
-      <c r="I118" s="29"/>
-      <c r="J118" s="29"/>
-      <c r="K118" s="29"/>
-      <c r="L118" s="29"/>
-      <c r="M118" s="29"/>
-      <c r="N118" s="29"/>
-      <c r="O118" s="29"/>
-      <c r="P118" s="29"/>
-      <c r="Q118" s="29"/>
-      <c r="R118" s="29"/>
-      <c r="S118" s="29"/>
-      <c r="T118" s="29"/>
-      <c r="U118" s="29"/>
-      <c r="V118" s="29"/>
-      <c r="W118" s="29"/>
-      <c r="X118" s="30"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="25"/>
+      <c r="E118" s="25"/>
+      <c r="F118" s="25"/>
+      <c r="G118" s="25"/>
+      <c r="H118" s="25"/>
+      <c r="I118" s="25"/>
+      <c r="J118" s="25"/>
+      <c r="K118" s="25"/>
+      <c r="L118" s="25"/>
+      <c r="M118" s="25"/>
+      <c r="N118" s="25"/>
+      <c r="O118" s="25"/>
+      <c r="P118" s="25"/>
+      <c r="Q118" s="25"/>
+      <c r="R118" s="25"/>
+      <c r="S118" s="25"/>
+      <c r="T118" s="25"/>
+      <c r="U118" s="25"/>
+      <c r="V118" s="25"/>
+      <c r="W118" s="25"/>
+      <c r="X118" s="26"/>
     </row>
     <row r="119" spans="2:24">
-      <c r="B119" s="23"/>
-      <c r="C119" s="28"/>
-      <c r="D119" s="29"/>
-      <c r="E119" s="29"/>
-      <c r="F119" s="29"/>
-      <c r="G119" s="29"/>
-      <c r="H119" s="29"/>
-      <c r="I119" s="29"/>
-      <c r="J119" s="29"/>
-      <c r="K119" s="29"/>
-      <c r="L119" s="29"/>
-      <c r="M119" s="29"/>
-      <c r="N119" s="29"/>
-      <c r="O119" s="29"/>
-      <c r="P119" s="29"/>
-      <c r="Q119" s="29"/>
-      <c r="R119" s="29"/>
-      <c r="S119" s="29"/>
-      <c r="T119" s="29"/>
-      <c r="U119" s="29"/>
-      <c r="V119" s="29"/>
-      <c r="W119" s="29"/>
-      <c r="X119" s="30"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="25"/>
+      <c r="E119" s="25"/>
+      <c r="F119" s="25"/>
+      <c r="G119" s="25"/>
+      <c r="H119" s="25"/>
+      <c r="I119" s="25"/>
+      <c r="J119" s="25"/>
+      <c r="K119" s="25"/>
+      <c r="L119" s="25"/>
+      <c r="M119" s="25"/>
+      <c r="N119" s="25"/>
+      <c r="O119" s="25"/>
+      <c r="P119" s="25"/>
+      <c r="Q119" s="25"/>
+      <c r="R119" s="25"/>
+      <c r="S119" s="25"/>
+      <c r="T119" s="25"/>
+      <c r="U119" s="25"/>
+      <c r="V119" s="25"/>
+      <c r="W119" s="25"/>
+      <c r="X119" s="26"/>
     </row>
     <row r="120" spans="2:24">
-      <c r="B120" s="23"/>
-      <c r="C120" s="28"/>
-      <c r="D120" s="29"/>
-      <c r="E120" s="29"/>
-      <c r="F120" s="29"/>
-      <c r="G120" s="29"/>
-      <c r="H120" s="29"/>
-      <c r="I120" s="29"/>
-      <c r="J120" s="29"/>
-      <c r="K120" s="29"/>
-      <c r="L120" s="29"/>
-      <c r="M120" s="29"/>
-      <c r="N120" s="29"/>
-      <c r="O120" s="29"/>
-      <c r="P120" s="29"/>
-      <c r="Q120" s="29"/>
-      <c r="R120" s="29"/>
-      <c r="S120" s="29"/>
-      <c r="T120" s="29"/>
-      <c r="U120" s="29"/>
-      <c r="V120" s="29"/>
-      <c r="W120" s="29"/>
-      <c r="X120" s="30"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="25"/>
+      <c r="E120" s="25"/>
+      <c r="F120" s="25"/>
+      <c r="G120" s="25"/>
+      <c r="H120" s="25"/>
+      <c r="I120" s="25"/>
+      <c r="J120" s="25"/>
+      <c r="K120" s="25"/>
+      <c r="L120" s="25"/>
+      <c r="M120" s="25"/>
+      <c r="N120" s="25"/>
+      <c r="O120" s="25"/>
+      <c r="P120" s="25"/>
+      <c r="Q120" s="25"/>
+      <c r="R120" s="25"/>
+      <c r="S120" s="25"/>
+      <c r="T120" s="25"/>
+      <c r="U120" s="25"/>
+      <c r="V120" s="25"/>
+      <c r="W120" s="25"/>
+      <c r="X120" s="26"/>
     </row>
     <row r="121" spans="2:24">
-      <c r="C121" s="28"/>
-      <c r="D121" s="29"/>
-      <c r="E121" s="29"/>
-      <c r="F121" s="29"/>
-      <c r="G121" s="29"/>
-      <c r="H121" s="29"/>
-      <c r="I121" s="29"/>
-      <c r="J121" s="29"/>
-      <c r="K121" s="29"/>
-      <c r="L121" s="29"/>
-      <c r="M121" s="29"/>
-      <c r="N121" s="29"/>
-      <c r="O121" s="29"/>
-      <c r="P121" s="29"/>
-      <c r="Q121" s="29"/>
-      <c r="R121" s="29"/>
-      <c r="S121" s="29"/>
-      <c r="T121" s="29"/>
-      <c r="U121" s="29"/>
-      <c r="V121" s="29"/>
-      <c r="W121" s="29"/>
-      <c r="X121" s="30"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="25"/>
+      <c r="E121" s="25"/>
+      <c r="F121" s="25"/>
+      <c r="G121" s="25"/>
+      <c r="H121" s="25"/>
+      <c r="I121" s="25"/>
+      <c r="J121" s="25"/>
+      <c r="K121" s="25"/>
+      <c r="L121" s="25"/>
+      <c r="M121" s="25"/>
+      <c r="N121" s="25"/>
+      <c r="O121" s="25"/>
+      <c r="P121" s="25"/>
+      <c r="Q121" s="25"/>
+      <c r="R121" s="25"/>
+      <c r="S121" s="25"/>
+      <c r="T121" s="25"/>
+      <c r="U121" s="25"/>
+      <c r="V121" s="25"/>
+      <c r="W121" s="25"/>
+      <c r="X121" s="26"/>
     </row>
     <row r="122" spans="2:24">
-      <c r="C122" s="28"/>
-      <c r="D122" s="29"/>
-      <c r="E122" s="29"/>
-      <c r="F122" s="29"/>
-      <c r="G122" s="29"/>
-      <c r="H122" s="29"/>
-      <c r="I122" s="29"/>
-      <c r="J122" s="29"/>
-      <c r="K122" s="29"/>
-      <c r="L122" s="29"/>
-      <c r="M122" s="29"/>
-      <c r="N122" s="29"/>
-      <c r="O122" s="29"/>
-      <c r="P122" s="29"/>
-      <c r="Q122" s="29"/>
-      <c r="R122" s="29"/>
-      <c r="S122" s="29"/>
-      <c r="T122" s="29"/>
-      <c r="U122" s="29"/>
-      <c r="V122" s="29"/>
-      <c r="W122" s="29"/>
-      <c r="X122" s="30"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="25"/>
+      <c r="E122" s="25"/>
+      <c r="F122" s="25"/>
+      <c r="G122" s="25"/>
+      <c r="H122" s="25"/>
+      <c r="I122" s="25"/>
+      <c r="J122" s="25"/>
+      <c r="K122" s="25"/>
+      <c r="L122" s="25"/>
+      <c r="M122" s="25"/>
+      <c r="N122" s="25"/>
+      <c r="O122" s="25"/>
+      <c r="P122" s="25"/>
+      <c r="Q122" s="25"/>
+      <c r="R122" s="25"/>
+      <c r="S122" s="25"/>
+      <c r="T122" s="25"/>
+      <c r="U122" s="25"/>
+      <c r="V122" s="25"/>
+      <c r="W122" s="25"/>
+      <c r="X122" s="26"/>
     </row>
     <row r="123" spans="2:24">
-      <c r="C123" s="28"/>
-      <c r="D123" s="29"/>
-      <c r="E123" s="29"/>
-      <c r="F123" s="29"/>
-      <c r="G123" s="29"/>
-      <c r="H123" s="29"/>
-      <c r="I123" s="29"/>
-      <c r="J123" s="29"/>
-      <c r="K123" s="29"/>
-      <c r="L123" s="29"/>
-      <c r="M123" s="29"/>
-      <c r="N123" s="29"/>
-      <c r="O123" s="29"/>
-      <c r="P123" s="29"/>
-      <c r="Q123" s="29"/>
-      <c r="R123" s="29"/>
-      <c r="S123" s="29"/>
-      <c r="T123" s="29"/>
-      <c r="U123" s="29"/>
-      <c r="V123" s="29"/>
-      <c r="W123" s="29"/>
-      <c r="X123" s="30"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="25"/>
+      <c r="E123" s="25"/>
+      <c r="F123" s="25"/>
+      <c r="G123" s="25"/>
+      <c r="H123" s="25"/>
+      <c r="I123" s="25"/>
+      <c r="J123" s="25"/>
+      <c r="K123" s="25"/>
+      <c r="L123" s="25"/>
+      <c r="M123" s="25"/>
+      <c r="N123" s="25"/>
+      <c r="O123" s="25"/>
+      <c r="P123" s="25"/>
+      <c r="Q123" s="25"/>
+      <c r="R123" s="25"/>
+      <c r="S123" s="25"/>
+      <c r="T123" s="25"/>
+      <c r="U123" s="25"/>
+      <c r="V123" s="25"/>
+      <c r="W123" s="25"/>
+      <c r="X123" s="26"/>
     </row>
     <row r="124" spans="2:24">
-      <c r="C124" s="28"/>
-      <c r="D124" s="29"/>
-      <c r="E124" s="29"/>
-      <c r="F124" s="29"/>
-      <c r="G124" s="29"/>
-      <c r="H124" s="29"/>
-      <c r="I124" s="29"/>
-      <c r="J124" s="29"/>
-      <c r="K124" s="29"/>
-      <c r="L124" s="29"/>
-      <c r="M124" s="29"/>
-      <c r="N124" s="29"/>
-      <c r="O124" s="29"/>
-      <c r="P124" s="29"/>
-      <c r="Q124" s="29"/>
-      <c r="R124" s="29"/>
-      <c r="S124" s="29"/>
-      <c r="T124" s="29"/>
-      <c r="U124" s="29"/>
-      <c r="V124" s="29"/>
-      <c r="W124" s="29"/>
-      <c r="X124" s="30"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="25"/>
+      <c r="E124" s="25"/>
+      <c r="F124" s="25"/>
+      <c r="G124" s="25"/>
+      <c r="H124" s="25"/>
+      <c r="I124" s="25"/>
+      <c r="J124" s="25"/>
+      <c r="K124" s="25"/>
+      <c r="L124" s="25"/>
+      <c r="M124" s="25"/>
+      <c r="N124" s="25"/>
+      <c r="O124" s="25"/>
+      <c r="P124" s="25"/>
+      <c r="Q124" s="25"/>
+      <c r="R124" s="25"/>
+      <c r="S124" s="25"/>
+      <c r="T124" s="25"/>
+      <c r="U124" s="25"/>
+      <c r="V124" s="25"/>
+      <c r="W124" s="25"/>
+      <c r="X124" s="26"/>
     </row>
     <row r="125" spans="2:24">
-      <c r="C125" s="28"/>
-      <c r="D125" s="29"/>
-      <c r="E125" s="29"/>
-      <c r="F125" s="29"/>
-      <c r="G125" s="29"/>
-      <c r="H125" s="29"/>
-      <c r="I125" s="29"/>
-      <c r="J125" s="29"/>
-      <c r="K125" s="29"/>
-      <c r="L125" s="29"/>
-      <c r="M125" s="29"/>
-      <c r="N125" s="29"/>
-      <c r="O125" s="29"/>
-      <c r="P125" s="29"/>
-      <c r="Q125" s="29"/>
-      <c r="R125" s="29"/>
-      <c r="S125" s="29"/>
-      <c r="T125" s="29"/>
-      <c r="U125" s="29"/>
-      <c r="V125" s="29"/>
-      <c r="W125" s="29"/>
-      <c r="X125" s="30"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="25"/>
+      <c r="E125" s="25"/>
+      <c r="F125" s="25"/>
+      <c r="G125" s="25"/>
+      <c r="H125" s="25"/>
+      <c r="I125" s="25"/>
+      <c r="J125" s="25"/>
+      <c r="K125" s="25"/>
+      <c r="L125" s="25"/>
+      <c r="M125" s="25"/>
+      <c r="N125" s="25"/>
+      <c r="O125" s="25"/>
+      <c r="P125" s="25"/>
+      <c r="Q125" s="25"/>
+      <c r="R125" s="25"/>
+      <c r="S125" s="25"/>
+      <c r="T125" s="25"/>
+      <c r="U125" s="25"/>
+      <c r="V125" s="25"/>
+      <c r="W125" s="25"/>
+      <c r="X125" s="26"/>
     </row>
     <row r="126" spans="2:24">
-      <c r="C126" s="28"/>
-      <c r="D126" s="29"/>
-      <c r="E126" s="29"/>
-      <c r="F126" s="29"/>
-      <c r="G126" s="29"/>
-      <c r="H126" s="29"/>
-      <c r="I126" s="29"/>
-      <c r="J126" s="29"/>
-      <c r="K126" s="29"/>
-      <c r="L126" s="29"/>
-      <c r="M126" s="29"/>
-      <c r="N126" s="29"/>
-      <c r="O126" s="29"/>
-      <c r="P126" s="29"/>
-      <c r="Q126" s="29"/>
-      <c r="R126" s="29"/>
-      <c r="S126" s="29"/>
-      <c r="T126" s="29"/>
-      <c r="U126" s="29"/>
-      <c r="V126" s="29"/>
-      <c r="W126" s="29"/>
-      <c r="X126" s="30"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="25"/>
+      <c r="E126" s="25"/>
+      <c r="F126" s="25"/>
+      <c r="G126" s="25"/>
+      <c r="H126" s="25"/>
+      <c r="I126" s="25"/>
+      <c r="J126" s="25"/>
+      <c r="K126" s="25"/>
+      <c r="L126" s="25"/>
+      <c r="M126" s="25"/>
+      <c r="N126" s="25"/>
+      <c r="O126" s="25"/>
+      <c r="P126" s="25"/>
+      <c r="Q126" s="25"/>
+      <c r="R126" s="25"/>
+      <c r="S126" s="25"/>
+      <c r="T126" s="25"/>
+      <c r="U126" s="25"/>
+      <c r="V126" s="25"/>
+      <c r="W126" s="25"/>
+      <c r="X126" s="26"/>
     </row>
     <row r="127" spans="2:24">
-      <c r="C127" s="28"/>
-      <c r="D127" s="29"/>
-      <c r="E127" s="29"/>
-      <c r="F127" s="29"/>
-      <c r="G127" s="29"/>
-      <c r="H127" s="29"/>
-      <c r="I127" s="29"/>
-      <c r="J127" s="29"/>
-      <c r="K127" s="29"/>
-      <c r="L127" s="29"/>
-      <c r="M127" s="29"/>
-      <c r="N127" s="29"/>
-      <c r="O127" s="29"/>
-      <c r="P127" s="29"/>
-      <c r="Q127" s="29"/>
-      <c r="R127" s="29"/>
-      <c r="S127" s="29"/>
-      <c r="T127" s="29"/>
-      <c r="U127" s="29"/>
-      <c r="V127" s="29"/>
-      <c r="W127" s="29"/>
-      <c r="X127" s="30"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="25"/>
+      <c r="E127" s="25"/>
+      <c r="F127" s="25"/>
+      <c r="G127" s="25"/>
+      <c r="H127" s="25"/>
+      <c r="I127" s="25"/>
+      <c r="J127" s="25"/>
+      <c r="K127" s="25"/>
+      <c r="L127" s="25"/>
+      <c r="M127" s="25"/>
+      <c r="N127" s="25"/>
+      <c r="O127" s="25"/>
+      <c r="P127" s="25"/>
+      <c r="Q127" s="25"/>
+      <c r="R127" s="25"/>
+      <c r="S127" s="25"/>
+      <c r="T127" s="25"/>
+      <c r="U127" s="25"/>
+      <c r="V127" s="25"/>
+      <c r="W127" s="25"/>
+      <c r="X127" s="26"/>
     </row>
     <row r="128" spans="2:24">
-      <c r="C128" s="28"/>
-      <c r="D128" s="29"/>
-      <c r="E128" s="29"/>
-      <c r="F128" s="29"/>
-      <c r="G128" s="29"/>
-      <c r="H128" s="29"/>
-      <c r="I128" s="29"/>
-      <c r="J128" s="29"/>
-      <c r="K128" s="29"/>
-      <c r="L128" s="29"/>
-      <c r="M128" s="29"/>
-      <c r="N128" s="29"/>
-      <c r="O128" s="29"/>
-      <c r="P128" s="29"/>
-      <c r="Q128" s="29"/>
-      <c r="R128" s="29"/>
-      <c r="S128" s="29"/>
-      <c r="T128" s="29"/>
-      <c r="U128" s="29"/>
-      <c r="V128" s="29"/>
-      <c r="W128" s="29"/>
-      <c r="X128" s="30"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="25"/>
+      <c r="E128" s="25"/>
+      <c r="F128" s="25"/>
+      <c r="G128" s="25"/>
+      <c r="H128" s="25"/>
+      <c r="I128" s="25"/>
+      <c r="J128" s="25"/>
+      <c r="K128" s="25"/>
+      <c r="L128" s="25"/>
+      <c r="M128" s="25"/>
+      <c r="N128" s="25"/>
+      <c r="O128" s="25"/>
+      <c r="P128" s="25"/>
+      <c r="Q128" s="25"/>
+      <c r="R128" s="25"/>
+      <c r="S128" s="25"/>
+      <c r="T128" s="25"/>
+      <c r="U128" s="25"/>
+      <c r="V128" s="25"/>
+      <c r="W128" s="25"/>
+      <c r="X128" s="26"/>
     </row>
     <row r="129" spans="1:24">
-      <c r="C129" s="28"/>
-      <c r="D129" s="29"/>
-      <c r="E129" s="29"/>
-      <c r="F129" s="29"/>
-      <c r="G129" s="29"/>
-      <c r="H129" s="29"/>
-      <c r="I129" s="29"/>
-      <c r="J129" s="29"/>
-      <c r="K129" s="29"/>
-      <c r="L129" s="29"/>
-      <c r="M129" s="29"/>
-      <c r="N129" s="29"/>
-      <c r="O129" s="29"/>
-      <c r="P129" s="29"/>
-      <c r="Q129" s="29"/>
-      <c r="R129" s="29"/>
-      <c r="S129" s="29"/>
-      <c r="T129" s="29"/>
-      <c r="U129" s="29"/>
-      <c r="V129" s="29"/>
-      <c r="W129" s="29"/>
-      <c r="X129" s="30"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="25"/>
+      <c r="E129" s="25"/>
+      <c r="F129" s="25"/>
+      <c r="G129" s="25"/>
+      <c r="H129" s="25"/>
+      <c r="I129" s="25"/>
+      <c r="J129" s="25"/>
+      <c r="K129" s="25"/>
+      <c r="L129" s="25"/>
+      <c r="M129" s="25"/>
+      <c r="N129" s="25"/>
+      <c r="O129" s="25"/>
+      <c r="P129" s="25"/>
+      <c r="Q129" s="25"/>
+      <c r="R129" s="25"/>
+      <c r="S129" s="25"/>
+      <c r="T129" s="25"/>
+      <c r="U129" s="25"/>
+      <c r="V129" s="25"/>
+      <c r="W129" s="25"/>
+      <c r="X129" s="26"/>
     </row>
     <row r="130" spans="1:24">
-      <c r="C130" s="28"/>
-      <c r="D130" s="29"/>
-      <c r="E130" s="29"/>
-      <c r="F130" s="29"/>
-      <c r="G130" s="29"/>
-      <c r="H130" s="29"/>
-      <c r="I130" s="29"/>
-      <c r="J130" s="29"/>
-      <c r="K130" s="29"/>
-      <c r="L130" s="29"/>
-      <c r="M130" s="29"/>
-      <c r="N130" s="29"/>
-      <c r="O130" s="29"/>
-      <c r="P130" s="29"/>
-      <c r="Q130" s="29"/>
-      <c r="R130" s="29"/>
-      <c r="S130" s="29"/>
-      <c r="T130" s="29"/>
-      <c r="U130" s="29"/>
-      <c r="V130" s="29"/>
-      <c r="W130" s="29"/>
-      <c r="X130" s="30"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="25"/>
+      <c r="E130" s="25"/>
+      <c r="F130" s="25"/>
+      <c r="G130" s="25"/>
+      <c r="H130" s="25"/>
+      <c r="I130" s="25"/>
+      <c r="J130" s="25"/>
+      <c r="K130" s="25"/>
+      <c r="L130" s="25"/>
+      <c r="M130" s="25"/>
+      <c r="N130" s="25"/>
+      <c r="O130" s="25"/>
+      <c r="P130" s="25"/>
+      <c r="Q130" s="25"/>
+      <c r="R130" s="25"/>
+      <c r="S130" s="25"/>
+      <c r="T130" s="25"/>
+      <c r="U130" s="25"/>
+      <c r="V130" s="25"/>
+      <c r="W130" s="25"/>
+      <c r="X130" s="26"/>
     </row>
     <row r="131" spans="1:24">
-      <c r="C131" s="28"/>
-      <c r="D131" s="29"/>
-      <c r="E131" s="29"/>
-      <c r="F131" s="29"/>
-      <c r="G131" s="29"/>
-      <c r="H131" s="29"/>
-      <c r="I131" s="29"/>
-      <c r="J131" s="29"/>
-      <c r="K131" s="29"/>
-      <c r="L131" s="29"/>
-      <c r="M131" s="29"/>
-      <c r="N131" s="29"/>
-      <c r="O131" s="29"/>
-      <c r="P131" s="29"/>
-      <c r="Q131" s="29"/>
-      <c r="R131" s="29"/>
-      <c r="S131" s="29"/>
-      <c r="T131" s="29"/>
-      <c r="U131" s="29"/>
-      <c r="V131" s="29"/>
-      <c r="W131" s="29"/>
-      <c r="X131" s="30"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="25"/>
+      <c r="E131" s="25"/>
+      <c r="F131" s="25"/>
+      <c r="G131" s="25"/>
+      <c r="H131" s="25"/>
+      <c r="I131" s="25"/>
+      <c r="J131" s="25"/>
+      <c r="K131" s="25"/>
+      <c r="L131" s="25"/>
+      <c r="M131" s="25"/>
+      <c r="N131" s="25"/>
+      <c r="O131" s="25"/>
+      <c r="P131" s="25"/>
+      <c r="Q131" s="25"/>
+      <c r="R131" s="25"/>
+      <c r="S131" s="25"/>
+      <c r="T131" s="25"/>
+      <c r="U131" s="25"/>
+      <c r="V131" s="25"/>
+      <c r="W131" s="25"/>
+      <c r="X131" s="26"/>
     </row>
     <row r="132" spans="1:24" ht="21" thickBot="1">
-      <c r="C132" s="31"/>
-      <c r="D132" s="32"/>
-      <c r="E132" s="32"/>
-      <c r="F132" s="32"/>
-      <c r="G132" s="32"/>
-      <c r="H132" s="32"/>
-      <c r="I132" s="32"/>
-      <c r="J132" s="32"/>
-      <c r="K132" s="32"/>
-      <c r="L132" s="32"/>
-      <c r="M132" s="32"/>
-      <c r="N132" s="32"/>
-      <c r="O132" s="32"/>
-      <c r="P132" s="32"/>
-      <c r="Q132" s="32"/>
-      <c r="R132" s="32"/>
-      <c r="S132" s="32"/>
-      <c r="T132" s="32"/>
-      <c r="U132" s="32"/>
-      <c r="V132" s="32"/>
-      <c r="W132" s="32"/>
-      <c r="X132" s="33"/>
+      <c r="C132" s="27"/>
+      <c r="D132" s="28"/>
+      <c r="E132" s="28"/>
+      <c r="F132" s="28"/>
+      <c r="G132" s="28"/>
+      <c r="H132" s="28"/>
+      <c r="I132" s="28"/>
+      <c r="J132" s="28"/>
+      <c r="K132" s="28"/>
+      <c r="L132" s="28"/>
+      <c r="M132" s="28"/>
+      <c r="N132" s="28"/>
+      <c r="O132" s="28"/>
+      <c r="P132" s="28"/>
+      <c r="Q132" s="28"/>
+      <c r="R132" s="28"/>
+      <c r="S132" s="28"/>
+      <c r="T132" s="28"/>
+      <c r="U132" s="28"/>
+      <c r="V132" s="28"/>
+      <c r="W132" s="28"/>
+      <c r="X132" s="29"/>
     </row>
     <row r="135" spans="1:24">
-      <c r="A135" s="14"/>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c r="G135" s="14"/>
-      <c r="H135" s="14"/>
-      <c r="I135" s="14"/>
-      <c r="J135" s="14"/>
-      <c r="K135" s="14"/>
-      <c r="L135" s="14"/>
-      <c r="M135" s="14"/>
-      <c r="N135" s="14"/>
-      <c r="O135" s="14"/>
-      <c r="P135" s="14"/>
+      <c r="A135" s="12"/>
+      <c r="B135" s="12"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="12"/>
+      <c r="L135" s="12"/>
+      <c r="M135" s="12"/>
+      <c r="N135" s="12"/>
+      <c r="O135" s="12"/>
+      <c r="P135" s="12"/>
     </row>
     <row r="136" spans="1:24">
-      <c r="C136" s="15" t="s">
+      <c r="C136" s="13" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="137" spans="1:24">
-      <c r="C137" s="16"/>
+      <c r="C137" s="14"/>
     </row>
     <row r="138" spans="1:24">
-      <c r="C138" s="16"/>
+      <c r="C138" s="14"/>
     </row>
     <row r="139" spans="1:24">
-      <c r="C139" s="15" t="s">
+      <c r="C139" s="13" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="140" spans="1:24">
-      <c r="C140" s="15" t="s">
+      <c r="C140" s="13" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="141" spans="1:24">
-      <c r="C141" s="15" t="s">
+      <c r="C141" s="13" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="142" spans="1:24">
-      <c r="C142" s="15" t="s">
+      <c r="C142" s="13" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="143" spans="1:24">
-      <c r="C143" s="15" t="s">
+      <c r="C143" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="L143" s="14"/>
-      <c r="M143" s="14"/>
-      <c r="N143" s="14"/>
+      <c r="L143" s="12"/>
+      <c r="M143" s="12"/>
+      <c r="N143" s="12"/>
     </row>
     <row r="144" spans="1:24">
-      <c r="C144" s="15"/>
-      <c r="L144" s="21" t="s">
+      <c r="C144" s="13"/>
+      <c r="L144" s="18" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="145" spans="3:3">
-      <c r="C145" s="15"/>
+      <c r="C145" s="13"/>
     </row>
     <row r="146" spans="3:3">
-      <c r="C146" s="15" t="s">
+      <c r="C146" s="13" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="147" spans="3:3">
-      <c r="C147" s="15"/>
+      <c r="C147" s="13"/>
     </row>
     <row r="148" spans="3:3">
-      <c r="C148" s="15"/>
+      <c r="C148" s="13"/>
     </row>
     <row r="149" spans="3:3">
-      <c r="C149" s="15" t="s">
+      <c r="C149" s="13" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="150" spans="3:3">
-      <c r="C150" s="15" t="s">
+      <c r="C150" s="13" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="151" spans="3:3">
-      <c r="C151" s="15"/>
+      <c r="C151" s="13"/>
     </row>
     <row r="152" spans="3:3">
-      <c r="C152" s="15"/>
+      <c r="C152" s="13"/>
     </row>
     <row r="153" spans="3:3">
-      <c r="C153" s="15" t="s">
+      <c r="C153" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="154" spans="3:3">
-      <c r="C154" s="15" t="s">
+      <c r="C154" s="13" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="155" spans="3:3">
-      <c r="C155" s="15" t="s">
+      <c r="C155" s="13" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="156" spans="3:3">
-      <c r="C156" s="15" t="s">
+      <c r="C156" s="13" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="157" spans="3:3">
-      <c r="C157" s="15" t="s">
+      <c r="C157" s="13" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="158" spans="3:3">
-      <c r="C158" s="15" t="s">
+      <c r="C158" s="13" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="159" spans="3:3">
-      <c r="C159" s="15"/>
+      <c r="C159" s="13"/>
     </row>
     <row r="160" spans="3:3">
-      <c r="C160" s="15"/>
+      <c r="C160" s="13"/>
     </row>
     <row r="161" spans="1:17">
-      <c r="C161" s="15" t="s">
+      <c r="C161" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="O161" s="23"/>
-      <c r="P161" s="23"/>
-      <c r="Q161" s="23"/>
+      <c r="O161" s="20"/>
+      <c r="P161" s="20"/>
+      <c r="Q161" s="20"/>
     </row>
     <row r="162" spans="1:17">
-      <c r="C162" s="20" t="s">
+      <c r="C162" s="17" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="163" spans="1:17">
-      <c r="C163" s="15"/>
+      <c r="C163" s="13"/>
     </row>
     <row r="164" spans="1:17">
-      <c r="C164" s="15"/>
+      <c r="C164" s="13"/>
     </row>
     <row r="165" spans="1:17">
-      <c r="A165" s="14"/>
-      <c r="B165" s="14"/>
-      <c r="C165" s="17"/>
-      <c r="D165" s="14"/>
-      <c r="E165" s="14"/>
+      <c r="A165" s="12"/>
+      <c r="B165" s="12"/>
+      <c r="C165" s="15"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
     </row>
     <row r="166" spans="1:17">
-      <c r="C166" s="15"/>
+      <c r="C166" s="13"/>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="14"/>
-      <c r="B179" s="14"/>
-      <c r="C179" s="14"/>
-      <c r="D179" s="14"/>
-      <c r="E179" s="14"/>
+      <c r="A179" s="12"/>
+      <c r="B179" s="12"/>
+      <c r="C179" s="12"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201" s="14"/>
-      <c r="B201" s="14"/>
-      <c r="C201" s="14"/>
-      <c r="D201" s="14"/>
-      <c r="E201" s="14"/>
+      <c r="A201" s="12"/>
+      <c r="B201" s="12"/>
+      <c r="C201" s="12"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="12"/>
     </row>
     <row r="204" spans="1:5">
-      <c r="C204" s="15" t="s">
+      <c r="C204" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="205" spans="1:5">
-      <c r="C205" s="15" t="s">
+      <c r="C205" s="13" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="206" spans="1:5">
-      <c r="C206" s="15" t="s">
+      <c r="C206" s="13" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="207" spans="1:5">
-      <c r="C207" s="15" t="s">
+      <c r="C207" s="13" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="208" spans="1:5">
-      <c r="C208" s="15" t="s">
+      <c r="C208" s="13" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="209" spans="3:12">
-      <c r="C209" s="15" t="s">
+      <c r="C209" s="13" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="210" spans="3:12">
-      <c r="C210" s="15" t="s">
+      <c r="C210" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="I210" s="23"/>
-      <c r="J210" s="23"/>
-      <c r="K210" s="23"/>
+      <c r="I210" s="20"/>
+      <c r="J210" s="20"/>
+      <c r="K210" s="20"/>
     </row>
     <row r="211" spans="3:12">
-      <c r="C211" s="15"/>
+      <c r="C211" s="13"/>
     </row>
     <row r="212" spans="3:12">
-      <c r="C212" s="15"/>
+      <c r="C212" s="13"/>
     </row>
     <row r="213" spans="3:12">
-      <c r="C213" s="15" t="s">
+      <c r="C213" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F213" s="14"/>
-      <c r="G213" s="14"/>
-      <c r="H213" s="23"/>
-      <c r="I213" s="23"/>
-      <c r="J213" s="14"/>
-      <c r="K213" s="14"/>
-      <c r="L213" s="14"/>
+      <c r="F213" s="12"/>
+      <c r="G213" s="12"/>
+      <c r="H213" s="20"/>
+      <c r="I213" s="20"/>
+      <c r="J213" s="12"/>
+      <c r="K213" s="12"/>
+      <c r="L213" s="12"/>
     </row>
     <row r="214" spans="3:12">
-      <c r="C214" s="15" t="s">
+      <c r="C214" s="13" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="215" spans="3:12">
-      <c r="C215" s="15" t="s">
+      <c r="C215" s="13" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="216" spans="3:12">
-      <c r="C216" s="15" t="s">
+      <c r="C216" s="13" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="217" spans="3:12">
-      <c r="C217" s="15" t="s">
+      <c r="C217" s="13" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="218" spans="3:12">
-      <c r="C218" s="15" t="s">
+      <c r="C218" s="13" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="220" spans="3:12">
-      <c r="C220" s="15" t="s">
+      <c r="C220" s="13" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="221" spans="3:12">
-      <c r="C221" s="15" t="s">
+      <c r="C221" s="13" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="222" spans="3:12">
-      <c r="C222" s="15" t="s">
+      <c r="C222" s="13" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="224" spans="3:12">
-      <c r="C224" s="22" t="s">
+      <c r="C224" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D224" s="14"/>
-      <c r="E224" s="14"/>
-      <c r="F224" s="14"/>
-      <c r="G224" s="14"/>
-      <c r="H224" s="14"/>
+      <c r="D224" s="12"/>
+      <c r="E224" s="12"/>
+      <c r="F224" s="12"/>
+      <c r="G224" s="12"/>
+      <c r="H224" s="12"/>
     </row>
     <row r="225" spans="3:11">
-      <c r="C225" s="22" t="s">
+      <c r="C225" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="D225" s="14"/>
-      <c r="E225" s="14"/>
-      <c r="F225" s="14"/>
-      <c r="G225" s="14"/>
-      <c r="H225" s="14"/>
+      <c r="D225" s="12"/>
+      <c r="E225" s="12"/>
+      <c r="F225" s="12"/>
+      <c r="G225" s="12"/>
+      <c r="H225" s="12"/>
     </row>
     <row r="226" spans="3:11">
-      <c r="C226" s="22" t="s">
+      <c r="C226" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D226" s="14"/>
-      <c r="E226" s="14"/>
-      <c r="F226" s="14"/>
-      <c r="G226" s="14"/>
-      <c r="H226" s="14"/>
+      <c r="D226" s="12"/>
+      <c r="E226" s="12"/>
+      <c r="F226" s="12"/>
+      <c r="G226" s="12"/>
+      <c r="H226" s="12"/>
     </row>
     <row r="227" spans="3:11">
-      <c r="C227" s="22" t="s">
+      <c r="C227" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="D227" s="14"/>
-      <c r="E227" s="14"/>
-      <c r="F227" s="14"/>
-      <c r="G227" s="14"/>
-      <c r="H227" s="14"/>
+      <c r="D227" s="12"/>
+      <c r="E227" s="12"/>
+      <c r="F227" s="12"/>
+      <c r="G227" s="12"/>
+      <c r="H227" s="12"/>
     </row>
     <row r="228" spans="3:11">
-      <c r="C228" s="22" t="s">
+      <c r="C228" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="D228" s="14"/>
-      <c r="E228" s="14"/>
-      <c r="F228" s="14"/>
-      <c r="G228" s="14"/>
-      <c r="H228" s="14"/>
+      <c r="D228" s="12"/>
+      <c r="E228" s="12"/>
+      <c r="F228" s="12"/>
+      <c r="G228" s="12"/>
+      <c r="H228" s="12"/>
     </row>
     <row r="229" spans="3:11">
-      <c r="C229" s="22" t="s">
+      <c r="C229" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="D229" s="14"/>
-      <c r="E229" s="14"/>
-      <c r="F229" s="14"/>
-      <c r="G229" s="14"/>
-      <c r="H229" s="14"/>
+      <c r="D229" s="12"/>
+      <c r="E229" s="12"/>
+      <c r="F229" s="12"/>
+      <c r="G229" s="12"/>
+      <c r="H229" s="12"/>
     </row>
     <row r="231" spans="3:11">
-      <c r="C231" s="15" t="s">
+      <c r="C231" s="13" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="232" spans="3:11">
-      <c r="C232" s="15" t="s">
+      <c r="C232" s="13" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="233" spans="3:11">
-      <c r="C233" s="15" t="s">
+      <c r="C233" s="13" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="234" spans="3:11">
-      <c r="C234" s="15" t="s">
+      <c r="C234" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="K234" s="18" t="s">
+      <c r="K234" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="235" spans="3:11">
-      <c r="C235" s="15" t="s">
+      <c r="C235" s="13" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="236" spans="3:11">
-      <c r="C236" s="15" t="s">
+      <c r="C236" s="13" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="238" spans="3:11">
-      <c r="C238" s="15" t="s">
+      <c r="C238" s="13" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="240" spans="3:11">
-      <c r="C240" s="15" t="s">
+      <c r="C240" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="241" spans="3:3">
-      <c r="C241" s="15" t="s">
+      <c r="C241" s="13" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="242" spans="3:3">
-      <c r="C242" s="15" t="s">
+      <c r="C242" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="244" spans="3:3">
-      <c r="C244" s="15" t="s">
+      <c r="C244" s="13" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="245" spans="3:3">
-      <c r="C245" s="15" t="s">
+      <c r="C245" s="13" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="246" spans="3:3">
-      <c r="C246" s="15" t="s">
+      <c r="C246" s="13" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="247" spans="3:3">
-      <c r="C247" s="15" t="s">
+      <c r="C247" s="13" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="248" spans="3:3">
-      <c r="C248" s="15" t="s">
+      <c r="C248" s="13" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="249" spans="3:3">
-      <c r="C249" s="15" t="s">
+      <c r="C249" s="13" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="250" spans="3:3">
-      <c r="C250" s="15" t="s">
+      <c r="C250" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="251" spans="3:3">
-      <c r="C251" s="15" t="s">
+      <c r="C251" s="13" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="253" spans="3:3">
-      <c r="C253" s="15" t="s">
+      <c r="C253" s="13" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="254" spans="3:3">
-      <c r="C254" s="15" t="s">
+      <c r="C254" s="13" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="255" spans="3:3">
-      <c r="C255" s="15" t="s">
+      <c r="C255" s="13" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="256" spans="3:3">
-      <c r="C256" s="15" t="s">
+      <c r="C256" s="13" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="257" spans="3:3">
-      <c r="C257" s="15" t="s">
+      <c r="C257" s="13" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="259" spans="3:3">
-      <c r="C259" s="15" t="s">
+      <c r="C259" s="13" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="260" spans="3:3">
-      <c r="C260" s="15" t="s">
+      <c r="C260" s="13" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="261" spans="3:3">
-      <c r="C261" s="15" t="s">
+      <c r="C261" s="13" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="262" spans="3:3">
-      <c r="C262" s="15" t="s">
+      <c r="C262" s="13" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="264" spans="3:3">
-      <c r="C264" s="15" t="s">
+      <c r="C264" s="13" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="265" spans="3:3">
-      <c r="C265" s="15" t="s">
+      <c r="C265" s="13" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="266" spans="3:3">
-      <c r="C266" s="15"/>
+      <c r="C266" s="13"/>
     </row>
     <row r="267" spans="3:3">
-      <c r="C267" s="15"/>
+      <c r="C267" s="13"/>
     </row>
     <row r="268" spans="3:3">
-      <c r="C268" s="15"/>
+      <c r="C268" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docker/docker_study01.xlsx
+++ b/docker/docker_study01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toyohide/Desktop/hideyuki/MY_STUDY/docker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5379678-260B-DF46-8BD2-A0BD424A9D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C595C4-ACBE-9D40-9E8D-C0F83EF7BCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="500" windowWidth="24540" windowHeight="15640" activeTab="1" xr2:uid="{A19E9BBB-4B96-2742-B501-9004DF3632FC}"/>
+    <workbookView xWindow="460" yWindow="500" windowWidth="24540" windowHeight="15640" activeTab="2" xr2:uid="{A19E9BBB-4B96-2742-B501-9004DF3632FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2204,11 +2204,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF919D5-23D6-4E45-8E74-B535D712EFF3}">
   <dimension ref="A1:X145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.7109375" defaultRowHeight="20"/>
@@ -2818,11 +2818,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F478B2-D45F-C849-91DA-60CE1AB63F62}">
   <dimension ref="A1:X268"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="N137" sqref="N137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.7109375" defaultRowHeight="20"/>
